--- a/DOC/詳細設計書/詳細設計_emsm_基本給_マスタ機能2.xlsx
+++ b/DOC/詳細設計書/詳細設計_emsm_基本給_マスタ機能2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\孙晔\git\ems\DOC\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB14CBE9-41B4-452F-A915-41471BB9E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{184950F0-4C9F-4FA8-BF57-1324545C0388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -812,6 +812,7 @@
     <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1519,10 +1520,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>baseSalaryInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>基本給ID＿値</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2127,6 +2124,10 @@
   </si>
   <si>
     <t>”稼働期間Toに数値のみを入力してください。”を表示します</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m_basesalary</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3928,22 +3929,115 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3951,99 +4045,6 @@
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="68" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4111,6 +4112,36 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4120,15 +4151,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4156,39 +4190,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4222,27 +4223,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="10" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="64" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="64" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4279,6 +4280,93 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4336,93 +4424,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="61" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4441,6 +4442,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4455,15 +4465,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -5664,8 +5665,8 @@
       <sheetName val="処理詳細"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="G4" t="str">
@@ -5682,10 +5683,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6053,7 +6054,7 @@
     <row r="15" spans="1:24" s="4" customFormat="1" ht="23.5">
       <c r="A15" s="5"/>
       <c r="H15" s="165" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I15" s="165"/>
       <c r="J15" s="165"/>
@@ -8192,7 +8193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8FD70-DB2F-4E05-B976-BB34EB7EB872}">
   <dimension ref="A1:BN73"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -8595,34 +8596,34 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -8649,32 +8650,32 @@
       <c r="BN2" s="31"/>
     </row>
     <row r="3" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A3" s="217"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="213"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -8701,170 +8702,170 @@
       <c r="BN3" s="32"/>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="222" t="s">
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="225" t="s">
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
-      <c r="U4" s="228" t="s">
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="221"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="229"/>
-      <c r="W4" s="229"/>
-      <c r="X4" s="229"/>
-      <c r="Y4" s="229"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="229"/>
-      <c r="AD4" s="229"/>
-      <c r="AE4" s="229"/>
-      <c r="AF4" s="229"/>
-      <c r="AG4" s="229"/>
-      <c r="AH4" s="229"/>
-      <c r="AI4" s="229"/>
-      <c r="AJ4" s="229"/>
-      <c r="AK4" s="229"/>
-      <c r="AL4" s="229"/>
-      <c r="AM4" s="229"/>
-      <c r="AN4" s="229"/>
-      <c r="AO4" s="229"/>
-      <c r="AP4" s="229"/>
-      <c r="AQ4" s="229"/>
-      <c r="AR4" s="229"/>
-      <c r="AS4" s="229"/>
-      <c r="AT4" s="229"/>
-      <c r="AU4" s="229"/>
-      <c r="AV4" s="230"/>
-      <c r="AW4" s="233" t="s">
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="224"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="224"/>
+      <c r="AH4" s="224"/>
+      <c r="AI4" s="224"/>
+      <c r="AJ4" s="224"/>
+      <c r="AK4" s="224"/>
+      <c r="AL4" s="224"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="224"/>
+      <c r="AO4" s="224"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="224"/>
+      <c r="AR4" s="224"/>
+      <c r="AS4" s="224"/>
+      <c r="AT4" s="224"/>
+      <c r="AU4" s="224"/>
+      <c r="AV4" s="225"/>
+      <c r="AW4" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="235"/>
-      <c r="AZ4" s="231">
+      <c r="AX4" s="229"/>
+      <c r="AY4" s="230"/>
+      <c r="AZ4" s="226">
         <v>44676</v>
       </c>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="232"/>
-      <c r="BC4" s="232"/>
-      <c r="BD4" s="232"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="233" t="s">
+      <c r="BA4" s="227"/>
+      <c r="BB4" s="227"/>
+      <c r="BC4" s="227"/>
+      <c r="BD4" s="227"/>
+      <c r="BE4" s="227"/>
+      <c r="BF4" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="BG4" s="234"/>
-      <c r="BH4" s="235"/>
-      <c r="BI4" s="231" t="s">
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="230"/>
+      <c r="BI4" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="BJ4" s="232"/>
-      <c r="BK4" s="232"/>
-      <c r="BL4" s="232"/>
-      <c r="BM4" s="232"/>
-      <c r="BN4" s="236"/>
+      <c r="BJ4" s="227"/>
+      <c r="BK4" s="227"/>
+      <c r="BL4" s="227"/>
+      <c r="BM4" s="227"/>
+      <c r="BN4" s="231"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="237" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="238"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="242"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="210"/>
-      <c r="AQ5" s="210"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="210"/>
-      <c r="AU5" s="210"/>
-      <c r="AV5" s="211"/>
-      <c r="AW5" s="243" t="s">
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="237"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
+      <c r="AB5" s="238"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="238"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="238"/>
+      <c r="AI5" s="238"/>
+      <c r="AJ5" s="238"/>
+      <c r="AK5" s="238"/>
+      <c r="AL5" s="238"/>
+      <c r="AM5" s="238"/>
+      <c r="AN5" s="238"/>
+      <c r="AO5" s="238"/>
+      <c r="AP5" s="238"/>
+      <c r="AQ5" s="238"/>
+      <c r="AR5" s="238"/>
+      <c r="AS5" s="238"/>
+      <c r="AT5" s="238"/>
+      <c r="AU5" s="238"/>
+      <c r="AV5" s="239"/>
+      <c r="AW5" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="244"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="209"/>
-      <c r="BE5" s="209"/>
-      <c r="BF5" s="243" t="s">
+      <c r="AX5" s="241"/>
+      <c r="AY5" s="242"/>
+      <c r="AZ5" s="241"/>
+      <c r="BA5" s="241"/>
+      <c r="BB5" s="241"/>
+      <c r="BC5" s="241"/>
+      <c r="BD5" s="241"/>
+      <c r="BE5" s="241"/>
+      <c r="BF5" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="244"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
-      <c r="BM5" s="210"/>
-      <c r="BN5" s="211"/>
+      <c r="BG5" s="241"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="241"/>
+      <c r="BJ5" s="238"/>
+      <c r="BK5" s="238"/>
+      <c r="BL5" s="238"/>
+      <c r="BM5" s="238"/>
+      <c r="BN5" s="239"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1" thickTop="1">
       <c r="A6" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -8906,36 +8907,36 @@
       <c r="AM6" s="34"/>
       <c r="AN6" s="34"/>
       <c r="AO6" s="34"/>
-      <c r="AP6" s="212" t="s">
+      <c r="AP6" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AQ6" s="213"/>
-      <c r="AR6" s="213"/>
-      <c r="AS6" s="214" t="s">
+      <c r="AQ6" s="210"/>
+      <c r="AR6" s="210"/>
+      <c r="AS6" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="AT6" s="214"/>
-      <c r="AU6" s="214"/>
-      <c r="AV6" s="214"/>
-      <c r="AW6" s="214"/>
-      <c r="AX6" s="214"/>
-      <c r="AY6" s="214"/>
-      <c r="AZ6" s="214"/>
-      <c r="BA6" s="214"/>
-      <c r="BB6" s="214"/>
-      <c r="BC6" s="214"/>
-      <c r="BD6" s="214"/>
-      <c r="BE6" s="214" t="s">
-        <v>208</v>
-      </c>
-      <c r="BF6" s="213"/>
-      <c r="BG6" s="213"/>
-      <c r="BH6" s="213"/>
-      <c r="BI6" s="213"/>
-      <c r="BJ6" s="213"/>
-      <c r="BK6" s="213"/>
-      <c r="BL6" s="213"/>
-      <c r="BM6" s="213"/>
+      <c r="AT6" s="211"/>
+      <c r="AU6" s="211"/>
+      <c r="AV6" s="211"/>
+      <c r="AW6" s="211"/>
+      <c r="AX6" s="211"/>
+      <c r="AY6" s="211"/>
+      <c r="AZ6" s="211"/>
+      <c r="BA6" s="211"/>
+      <c r="BB6" s="211"/>
+      <c r="BC6" s="211"/>
+      <c r="BD6" s="211"/>
+      <c r="BE6" s="211" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF6" s="210"/>
+      <c r="BG6" s="210"/>
+      <c r="BH6" s="210"/>
+      <c r="BI6" s="210"/>
+      <c r="BJ6" s="210"/>
+      <c r="BK6" s="210"/>
+      <c r="BL6" s="210"/>
+      <c r="BM6" s="210"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
       <c r="A7" s="35"/>
@@ -8980,7 +8981,7 @@
       <c r="AN7" s="34"/>
       <c r="AO7" s="34"/>
       <c r="AP7" s="203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AQ7" s="204"/>
       <c r="AR7" s="205"/>
@@ -8999,7 +9000,7 @@
       <c r="BC7" s="207"/>
       <c r="BD7" s="208"/>
       <c r="BE7" s="206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BF7" s="207"/>
       <c r="BG7" s="207"/>
@@ -9044,12 +9045,12 @@
       <c r="AN8" s="34"/>
       <c r="AO8" s="34"/>
       <c r="AP8" s="203" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AQ8" s="204"/>
       <c r="AR8" s="205"/>
       <c r="AS8" s="206" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AT8" s="207"/>
       <c r="AU8" s="207"/>
@@ -9063,7 +9064,7 @@
       <c r="BC8" s="207"/>
       <c r="BD8" s="208"/>
       <c r="BE8" s="206" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BF8" s="207"/>
       <c r="BG8" s="207"/>
@@ -9116,12 +9117,12 @@
       <c r="AM9" s="34"/>
       <c r="AN9" s="34"/>
       <c r="AP9" s="203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ9" s="204"/>
       <c r="AR9" s="205"/>
       <c r="AS9" s="206" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AT9" s="207"/>
       <c r="AU9" s="207"/>
@@ -9135,7 +9136,7 @@
       <c r="BC9" s="207"/>
       <c r="BD9" s="208"/>
       <c r="BE9" s="206" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BF9" s="207"/>
       <c r="BG9" s="207"/>
@@ -9189,7 +9190,7 @@
       <c r="AN10" s="34"/>
       <c r="AO10" s="34"/>
       <c r="AP10" s="203" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AQ10" s="204"/>
       <c r="AR10" s="205"/>
@@ -9262,12 +9263,12 @@
       <c r="AN11" s="34"/>
       <c r="AO11" s="34"/>
       <c r="AP11" s="203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ11" s="204"/>
       <c r="AR11" s="205"/>
       <c r="AS11" s="206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AT11" s="207"/>
       <c r="AU11" s="207"/>
@@ -9281,7 +9282,7 @@
       <c r="BC11" s="207"/>
       <c r="BD11" s="208"/>
       <c r="BE11" s="206" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BF11" s="207"/>
       <c r="BG11" s="207"/>
@@ -9335,7 +9336,7 @@
       <c r="AN12" s="34"/>
       <c r="AO12" s="34"/>
       <c r="AP12" s="203" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AQ12" s="204"/>
       <c r="AR12" s="205"/>
@@ -9408,7 +9409,7 @@
       <c r="AN13" s="34"/>
       <c r="AO13" s="34"/>
       <c r="AP13" s="203" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AQ13" s="204"/>
       <c r="AR13" s="205"/>
@@ -9481,12 +9482,12 @@
       <c r="AN14" s="34"/>
       <c r="AO14" s="34"/>
       <c r="AP14" s="203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ14" s="204"/>
       <c r="AR14" s="205"/>
       <c r="AS14" s="206" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AT14" s="207"/>
       <c r="AU14" s="207"/>
@@ -9500,7 +9501,7 @@
       <c r="BC14" s="207"/>
       <c r="BD14" s="208"/>
       <c r="BE14" s="206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BF14" s="207"/>
       <c r="BG14" s="207"/>
@@ -9554,12 +9555,12 @@
       <c r="AN15" s="34"/>
       <c r="AO15" s="34"/>
       <c r="AP15" s="203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AQ15" s="204"/>
       <c r="AR15" s="205"/>
       <c r="AS15" s="206" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AT15" s="207"/>
       <c r="AU15" s="207"/>
@@ -9626,12 +9627,12 @@
       <c r="AN16" s="34"/>
       <c r="AO16" s="34"/>
       <c r="AP16" s="203" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AQ16" s="204"/>
       <c r="AR16" s="205"/>
       <c r="AS16" s="206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AT16" s="207"/>
       <c r="AU16" s="207"/>
@@ -9699,12 +9700,12 @@
       <c r="AN17" s="34"/>
       <c r="AO17" s="34"/>
       <c r="AP17" s="203" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AQ17" s="204"/>
       <c r="AR17" s="205"/>
       <c r="AS17" s="206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AT17" s="207"/>
       <c r="AU17" s="207"/>
@@ -9772,12 +9773,12 @@
       <c r="AN18" s="34"/>
       <c r="AO18" s="34"/>
       <c r="AP18" s="203" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AQ18" s="204"/>
       <c r="AR18" s="205"/>
       <c r="AS18" s="206" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT18" s="207"/>
       <c r="AU18" s="207"/>
@@ -9845,12 +9846,12 @@
       <c r="AN19" s="34"/>
       <c r="AO19" s="34"/>
       <c r="AP19" s="203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AQ19" s="204"/>
       <c r="AR19" s="205"/>
       <c r="AS19" s="206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AT19" s="207"/>
       <c r="AU19" s="207"/>
@@ -9918,12 +9919,12 @@
       <c r="AN20" s="34"/>
       <c r="AO20" s="34"/>
       <c r="AP20" s="203" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AQ20" s="204"/>
       <c r="AR20" s="205"/>
       <c r="AS20" s="206" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AT20" s="207"/>
       <c r="AU20" s="207"/>
@@ -9991,12 +9992,12 @@
       <c r="AN21" s="34"/>
       <c r="AO21" s="34"/>
       <c r="AP21" s="203" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AQ21" s="204"/>
       <c r="AR21" s="205"/>
       <c r="AS21" s="206" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AT21" s="207"/>
       <c r="AU21" s="207"/>
@@ -10064,7 +10065,7 @@
       <c r="AN22" s="34"/>
       <c r="AO22" s="34"/>
       <c r="AP22" s="203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AQ22" s="204"/>
       <c r="AR22" s="205"/>
@@ -10137,7 +10138,7 @@
       <c r="AN23" s="34"/>
       <c r="AO23" s="34"/>
       <c r="AP23" s="203" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AQ23" s="204"/>
       <c r="AR23" s="205"/>
@@ -10210,7 +10211,7 @@
       <c r="AN24" s="34"/>
       <c r="AO24" s="34"/>
       <c r="AP24" s="203" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AQ24" s="204"/>
       <c r="AR24" s="205"/>
@@ -10283,7 +10284,7 @@
       <c r="AN25" s="34"/>
       <c r="AO25" s="34"/>
       <c r="AP25" s="203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AQ25" s="204"/>
       <c r="AR25" s="205"/>
@@ -10356,7 +10357,7 @@
       <c r="AN26" s="34"/>
       <c r="AO26" s="34"/>
       <c r="AP26" s="203" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AQ26" s="204"/>
       <c r="AR26" s="205"/>
@@ -10429,7 +10430,7 @@
       <c r="AN27" s="34"/>
       <c r="AO27" s="34"/>
       <c r="AP27" s="203" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AQ27" s="204"/>
       <c r="AR27" s="205"/>
@@ -10502,7 +10503,7 @@
       <c r="AN28" s="34"/>
       <c r="AO28" s="34"/>
       <c r="AP28" s="203" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AQ28" s="204"/>
       <c r="AR28" s="205"/>
@@ -10575,7 +10576,7 @@
       <c r="AN29" s="34"/>
       <c r="AO29" s="34"/>
       <c r="AP29" s="203" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AQ29" s="204"/>
       <c r="AR29" s="205"/>
@@ -10908,7 +10909,7 @@
     </row>
     <row r="37" spans="1:65" ht="13.5" customHeight="1">
       <c r="A37" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
@@ -11165,36 +11166,36 @@
       <c r="AM42" s="34"/>
       <c r="AN42" s="34"/>
       <c r="AO42" s="34"/>
-      <c r="AP42" s="212" t="s">
+      <c r="AP42" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="AQ42" s="213"/>
-      <c r="AR42" s="213"/>
-      <c r="AS42" s="214" t="s">
+      <c r="AQ42" s="210"/>
+      <c r="AR42" s="210"/>
+      <c r="AS42" s="211" t="s">
         <v>28</v>
       </c>
-      <c r="AT42" s="214"/>
-      <c r="AU42" s="214"/>
-      <c r="AV42" s="214"/>
-      <c r="AW42" s="214"/>
-      <c r="AX42" s="214"/>
-      <c r="AY42" s="214"/>
-      <c r="AZ42" s="214"/>
-      <c r="BA42" s="214"/>
-      <c r="BB42" s="214"/>
-      <c r="BC42" s="214"/>
-      <c r="BD42" s="214"/>
-      <c r="BE42" s="214" t="s">
+      <c r="AT42" s="211"/>
+      <c r="AU42" s="211"/>
+      <c r="AV42" s="211"/>
+      <c r="AW42" s="211"/>
+      <c r="AX42" s="211"/>
+      <c r="AY42" s="211"/>
+      <c r="AZ42" s="211"/>
+      <c r="BA42" s="211"/>
+      <c r="BB42" s="211"/>
+      <c r="BC42" s="211"/>
+      <c r="BD42" s="211"/>
+      <c r="BE42" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="BF42" s="213"/>
-      <c r="BG42" s="213"/>
-      <c r="BH42" s="213"/>
-      <c r="BI42" s="213"/>
-      <c r="BJ42" s="213"/>
-      <c r="BK42" s="213"/>
-      <c r="BL42" s="213"/>
-      <c r="BM42" s="213"/>
+      <c r="BF42" s="210"/>
+      <c r="BG42" s="210"/>
+      <c r="BH42" s="210"/>
+      <c r="BI42" s="210"/>
+      <c r="BJ42" s="210"/>
+      <c r="BK42" s="210"/>
+      <c r="BL42" s="210"/>
+      <c r="BM42" s="210"/>
     </row>
     <row r="43" spans="1:65" ht="13.5" customHeight="1">
       <c r="A43" s="35"/>
@@ -11239,7 +11240,7 @@
       <c r="AN43" s="34"/>
       <c r="AO43" s="34"/>
       <c r="AP43" s="203" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ43" s="204"/>
       <c r="AR43" s="205"/>
@@ -11258,7 +11259,7 @@
       <c r="BC43" s="207"/>
       <c r="BD43" s="208"/>
       <c r="BE43" s="206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BF43" s="207"/>
       <c r="BG43" s="207"/>
@@ -11311,11 +11312,11 @@
       <c r="AM44" s="34"/>
       <c r="AN44" s="34"/>
       <c r="AO44" s="34"/>
-      <c r="AP44" s="245" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ44" s="246"/>
-      <c r="AR44" s="247"/>
+      <c r="AP44" s="243" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ44" s="244"/>
+      <c r="AR44" s="245"/>
       <c r="AS44" s="206" t="s">
         <v>80</v>
       </c>
@@ -11333,14 +11334,14 @@
       <c r="BE44" s="206" t="s">
         <v>108</v>
       </c>
-      <c r="BF44" s="215"/>
-      <c r="BG44" s="215"/>
-      <c r="BH44" s="215"/>
-      <c r="BI44" s="215"/>
-      <c r="BJ44" s="215"/>
-      <c r="BK44" s="215"/>
-      <c r="BL44" s="215"/>
-      <c r="BM44" s="216"/>
+      <c r="BF44" s="246"/>
+      <c r="BG44" s="246"/>
+      <c r="BH44" s="246"/>
+      <c r="BI44" s="246"/>
+      <c r="BJ44" s="246"/>
+      <c r="BK44" s="246"/>
+      <c r="BL44" s="246"/>
+      <c r="BM44" s="247"/>
     </row>
     <row r="45" spans="1:65" ht="13.5" customHeight="1">
       <c r="A45" s="35"/>
@@ -11385,7 +11386,7 @@
       <c r="AN45" s="34"/>
       <c r="AO45" s="34"/>
       <c r="AP45" s="203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AQ45" s="204"/>
       <c r="AR45" s="205"/>
@@ -11404,7 +11405,7 @@
       <c r="BC45" s="207"/>
       <c r="BD45" s="208"/>
       <c r="BE45" s="206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF45" s="207"/>
       <c r="BG45" s="207"/>
@@ -11457,13 +11458,13 @@
       <c r="AM46" s="34"/>
       <c r="AN46" s="34"/>
       <c r="AO46" s="34"/>
-      <c r="AP46" s="245" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ46" s="246"/>
-      <c r="AR46" s="247"/>
+      <c r="AP46" s="243" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ46" s="244"/>
+      <c r="AR46" s="245"/>
       <c r="AS46" s="206" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AT46" s="207"/>
       <c r="AU46" s="207"/>
@@ -11477,7 +11478,7 @@
       <c r="BC46" s="207"/>
       <c r="BD46" s="208"/>
       <c r="BE46" s="206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF46" s="207"/>
       <c r="BG46" s="207"/>
@@ -11531,12 +11532,12 @@
       <c r="AN47" s="34"/>
       <c r="AO47" s="34"/>
       <c r="AP47" s="203" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AQ47" s="204"/>
       <c r="AR47" s="205"/>
       <c r="AS47" s="206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AT47" s="207"/>
       <c r="AU47" s="207"/>
@@ -11550,7 +11551,7 @@
       <c r="BC47" s="207"/>
       <c r="BD47" s="208"/>
       <c r="BE47" s="206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF47" s="207"/>
       <c r="BG47" s="207"/>
@@ -11603,13 +11604,13 @@
       <c r="AM48" s="34"/>
       <c r="AN48" s="34"/>
       <c r="AO48" s="34"/>
-      <c r="AP48" s="245" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ48" s="246"/>
-      <c r="AR48" s="247"/>
+      <c r="AP48" s="243" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ48" s="244"/>
+      <c r="AR48" s="245"/>
       <c r="AS48" s="206" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AT48" s="207"/>
       <c r="AU48" s="207"/>
@@ -11623,7 +11624,7 @@
       <c r="BC48" s="207"/>
       <c r="BD48" s="208"/>
       <c r="BE48" s="206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF48" s="207"/>
       <c r="BG48" s="207"/>
@@ -11676,13 +11677,13 @@
       <c r="AM49" s="34"/>
       <c r="AN49" s="34"/>
       <c r="AO49" s="34"/>
-      <c r="AP49" s="245" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ49" s="246"/>
-      <c r="AR49" s="247"/>
+      <c r="AP49" s="243" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ49" s="244"/>
+      <c r="AR49" s="245"/>
       <c r="AS49" s="206" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AT49" s="207"/>
       <c r="AU49" s="207"/>
@@ -11696,7 +11697,7 @@
       <c r="BC49" s="207"/>
       <c r="BD49" s="208"/>
       <c r="BE49" s="206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF49" s="207"/>
       <c r="BG49" s="207"/>
@@ -11749,11 +11750,11 @@
       <c r="AM50" s="34"/>
       <c r="AN50" s="34"/>
       <c r="AO50" s="34"/>
-      <c r="AP50" s="245" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ50" s="246"/>
-      <c r="AR50" s="247"/>
+      <c r="AP50" s="243" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ50" s="244"/>
+      <c r="AR50" s="245"/>
       <c r="AS50" s="206" t="s">
         <v>38</v>
       </c>
@@ -11769,7 +11770,7 @@
       <c r="BC50" s="207"/>
       <c r="BD50" s="208"/>
       <c r="BE50" s="250" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BF50" s="251"/>
       <c r="BG50" s="251"/>
@@ -11823,9 +11824,9 @@
       <c r="AN51" s="34"/>
       <c r="AO51" s="34"/>
       <c r="AP51" s="248" t="s">
-        <v>218</v>
-      </c>
-      <c r="AQ51" s="238"/>
+        <v>217</v>
+      </c>
+      <c r="AQ51" s="233"/>
       <c r="AR51" s="249"/>
       <c r="AS51" s="253" t="s">
         <v>34</v>
@@ -12800,12 +12801,6 @@
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE17:BM17"/>
-    <mergeCell ref="BE18:BM18"/>
-    <mergeCell ref="BE20:BM20"/>
-    <mergeCell ref="BE22:BM22"/>
-    <mergeCell ref="BE24:BM24"/>
     <mergeCell ref="BE12:BM12"/>
     <mergeCell ref="BE13:BM13"/>
     <mergeCell ref="BE14:BM14"/>
@@ -12845,6 +12840,12 @@
     <mergeCell ref="BE49:BM49"/>
     <mergeCell ref="AS46:BD46"/>
     <mergeCell ref="BE46:BM46"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE17:BM17"/>
+    <mergeCell ref="BE18:BM18"/>
+    <mergeCell ref="BE20:BM20"/>
+    <mergeCell ref="BE22:BM22"/>
+    <mergeCell ref="BE24:BM24"/>
     <mergeCell ref="AP45:AR45"/>
     <mergeCell ref="AS45:BD45"/>
     <mergeCell ref="BE45:BM45"/>
@@ -12938,7 +12939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C86800-AC9B-4364-B6A5-57CA6F573B88}">
   <dimension ref="A1:BM60"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -13271,34 +13272,34 @@
       <c r="BM1" s="38"/>
     </row>
     <row r="2" spans="1:65" ht="13.5" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -13324,32 +13325,32 @@
       <c r="BM2" s="38"/>
     </row>
     <row r="3" spans="1:65" ht="13.5" customHeight="1">
-      <c r="A3" s="217"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="213"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -13375,163 +13376,163 @@
       <c r="BM3" s="39"/>
     </row>
     <row r="4" spans="1:65" ht="13.5" customHeight="1">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="222" t="s">
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="225" t="s">
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
-      <c r="U4" s="228" t="s">
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="221"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="229"/>
-      <c r="W4" s="229"/>
-      <c r="X4" s="229"/>
-      <c r="Y4" s="229"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="229"/>
-      <c r="AD4" s="229"/>
-      <c r="AE4" s="229"/>
-      <c r="AF4" s="229"/>
-      <c r="AG4" s="229"/>
-      <c r="AH4" s="229"/>
-      <c r="AI4" s="229"/>
-      <c r="AJ4" s="229"/>
-      <c r="AK4" s="229"/>
-      <c r="AL4" s="229"/>
-      <c r="AM4" s="229"/>
-      <c r="AN4" s="229"/>
-      <c r="AO4" s="229"/>
-      <c r="AP4" s="229"/>
-      <c r="AQ4" s="229"/>
-      <c r="AR4" s="229"/>
-      <c r="AS4" s="229"/>
-      <c r="AT4" s="229"/>
-      <c r="AU4" s="229"/>
-      <c r="AV4" s="230"/>
-      <c r="AW4" s="233" t="s">
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="224"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="224"/>
+      <c r="AH4" s="224"/>
+      <c r="AI4" s="224"/>
+      <c r="AJ4" s="224"/>
+      <c r="AK4" s="224"/>
+      <c r="AL4" s="224"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="224"/>
+      <c r="AO4" s="224"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="224"/>
+      <c r="AR4" s="224"/>
+      <c r="AS4" s="224"/>
+      <c r="AT4" s="224"/>
+      <c r="AU4" s="224"/>
+      <c r="AV4" s="225"/>
+      <c r="AW4" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="235"/>
-      <c r="AZ4" s="231">
+      <c r="AX4" s="229"/>
+      <c r="AY4" s="230"/>
+      <c r="AZ4" s="226">
         <v>44676</v>
       </c>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="232"/>
-      <c r="BC4" s="232"/>
-      <c r="BD4" s="232"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="233" t="s">
+      <c r="BA4" s="227"/>
+      <c r="BB4" s="227"/>
+      <c r="BC4" s="227"/>
+      <c r="BD4" s="227"/>
+      <c r="BE4" s="227"/>
+      <c r="BF4" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="BG4" s="234"/>
-      <c r="BH4" s="235"/>
-      <c r="BI4" s="231" t="s">
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="230"/>
+      <c r="BI4" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="BJ4" s="232"/>
-      <c r="BK4" s="232"/>
-      <c r="BL4" s="232"/>
+      <c r="BJ4" s="227"/>
+      <c r="BK4" s="227"/>
+      <c r="BL4" s="227"/>
       <c r="BM4" s="40"/>
     </row>
     <row r="5" spans="1:65" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="237" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="238"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="242"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="210"/>
-      <c r="AQ5" s="210"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="210"/>
-      <c r="AU5" s="210"/>
-      <c r="AV5" s="211"/>
-      <c r="AW5" s="243" t="s">
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="237"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
+      <c r="AB5" s="238"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="238"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="238"/>
+      <c r="AI5" s="238"/>
+      <c r="AJ5" s="238"/>
+      <c r="AK5" s="238"/>
+      <c r="AL5" s="238"/>
+      <c r="AM5" s="238"/>
+      <c r="AN5" s="238"/>
+      <c r="AO5" s="238"/>
+      <c r="AP5" s="238"/>
+      <c r="AQ5" s="238"/>
+      <c r="AR5" s="238"/>
+      <c r="AS5" s="238"/>
+      <c r="AT5" s="238"/>
+      <c r="AU5" s="238"/>
+      <c r="AV5" s="239"/>
+      <c r="AW5" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="244"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="209"/>
-      <c r="BE5" s="209"/>
-      <c r="BF5" s="243" t="s">
+      <c r="AX5" s="241"/>
+      <c r="AY5" s="242"/>
+      <c r="AZ5" s="241"/>
+      <c r="BA5" s="241"/>
+      <c r="BB5" s="241"/>
+      <c r="BC5" s="241"/>
+      <c r="BD5" s="241"/>
+      <c r="BE5" s="241"/>
+      <c r="BF5" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="244"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
+      <c r="BG5" s="241"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="241"/>
+      <c r="BJ5" s="238"/>
+      <c r="BK5" s="238"/>
+      <c r="BL5" s="238"/>
       <c r="BM5" s="41"/>
     </row>
     <row r="6" spans="1:65" ht="13.5" customHeight="1" thickTop="1">
@@ -17308,8 +17309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB69F5B-6412-47CD-9BD7-07AA43D66696}">
   <dimension ref="A1:BL31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11:BL11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9:AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.83203125" defaultRowHeight="13.5" customHeight="1"/>
@@ -17519,35 +17520,35 @@
       <c r="BL1" s="25"/>
     </row>
     <row r="2" spans="1:64" ht="13.5" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
-      <c r="AA2" s="218"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
+      <c r="AA2" s="213"/>
       <c r="AP2" s="29"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
@@ -17573,33 +17574,33 @@
       <c r="BL2" s="30"/>
     </row>
     <row r="3" spans="1:64" ht="13.5" customHeight="1">
-      <c r="A3" s="358"/>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
-      <c r="H3" s="359"/>
-      <c r="I3" s="359"/>
-      <c r="J3" s="359"/>
-      <c r="K3" s="359"/>
-      <c r="L3" s="359"/>
-      <c r="M3" s="359"/>
-      <c r="N3" s="359"/>
-      <c r="O3" s="359"/>
-      <c r="P3" s="359"/>
-      <c r="Q3" s="359"/>
-      <c r="R3" s="359"/>
-      <c r="S3" s="359"/>
-      <c r="T3" s="359"/>
-      <c r="U3" s="359"/>
-      <c r="V3" s="359"/>
-      <c r="W3" s="359"/>
-      <c r="X3" s="359"/>
-      <c r="Y3" s="359"/>
-      <c r="Z3" s="359"/>
-      <c r="AA3" s="359"/>
+      <c r="A3" s="339"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="340"/>
+      <c r="F3" s="340"/>
+      <c r="G3" s="340"/>
+      <c r="H3" s="340"/>
+      <c r="I3" s="340"/>
+      <c r="J3" s="340"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
+      <c r="O3" s="340"/>
+      <c r="P3" s="340"/>
+      <c r="Q3" s="340"/>
+      <c r="R3" s="340"/>
+      <c r="S3" s="340"/>
+      <c r="T3" s="340"/>
+      <c r="U3" s="340"/>
+      <c r="V3" s="340"/>
+      <c r="W3" s="340"/>
+      <c r="X3" s="340"/>
+      <c r="Y3" s="340"/>
+      <c r="Z3" s="340"/>
+      <c r="AA3" s="340"/>
       <c r="AB3" s="79"/>
       <c r="AC3" s="79"/>
       <c r="AD3" s="79"/>
@@ -17639,234 +17640,234 @@
       <c r="BL3" s="80"/>
     </row>
     <row r="4" spans="1:64" ht="13.5" customHeight="1">
-      <c r="A4" s="360" t="s">
+      <c r="A4" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="361"/>
-      <c r="C4" s="361"/>
-      <c r="D4" s="361"/>
-      <c r="E4" s="361"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="363" t="s">
+      <c r="B4" s="342"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="365"/>
-      <c r="P4" s="366" t="s">
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="347" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="367"/>
-      <c r="R4" s="367"/>
-      <c r="S4" s="367"/>
-      <c r="T4" s="367"/>
-      <c r="U4" s="368"/>
-      <c r="V4" s="369" t="s">
+      <c r="Q4" s="348"/>
+      <c r="R4" s="348"/>
+      <c r="S4" s="348"/>
+      <c r="T4" s="348"/>
+      <c r="U4" s="349"/>
+      <c r="V4" s="350" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="370"/>
-      <c r="X4" s="370"/>
-      <c r="Y4" s="370"/>
-      <c r="Z4" s="370"/>
-      <c r="AA4" s="370"/>
-      <c r="AB4" s="370"/>
-      <c r="AC4" s="370"/>
-      <c r="AD4" s="370"/>
-      <c r="AE4" s="370"/>
-      <c r="AF4" s="370"/>
-      <c r="AG4" s="370"/>
-      <c r="AH4" s="370"/>
-      <c r="AI4" s="370"/>
-      <c r="AJ4" s="370"/>
-      <c r="AK4" s="370"/>
-      <c r="AL4" s="370"/>
-      <c r="AM4" s="370"/>
-      <c r="AN4" s="370"/>
-      <c r="AO4" s="370"/>
-      <c r="AP4" s="370"/>
-      <c r="AQ4" s="370"/>
-      <c r="AR4" s="370"/>
-      <c r="AS4" s="370"/>
-      <c r="AT4" s="370"/>
-      <c r="AU4" s="370"/>
-      <c r="AV4" s="371"/>
-      <c r="AW4" s="372" t="s">
+      <c r="W4" s="351"/>
+      <c r="X4" s="351"/>
+      <c r="Y4" s="351"/>
+      <c r="Z4" s="351"/>
+      <c r="AA4" s="351"/>
+      <c r="AB4" s="351"/>
+      <c r="AC4" s="351"/>
+      <c r="AD4" s="351"/>
+      <c r="AE4" s="351"/>
+      <c r="AF4" s="351"/>
+      <c r="AG4" s="351"/>
+      <c r="AH4" s="351"/>
+      <c r="AI4" s="351"/>
+      <c r="AJ4" s="351"/>
+      <c r="AK4" s="351"/>
+      <c r="AL4" s="351"/>
+      <c r="AM4" s="351"/>
+      <c r="AN4" s="351"/>
+      <c r="AO4" s="351"/>
+      <c r="AP4" s="351"/>
+      <c r="AQ4" s="351"/>
+      <c r="AR4" s="351"/>
+      <c r="AS4" s="351"/>
+      <c r="AT4" s="351"/>
+      <c r="AU4" s="351"/>
+      <c r="AV4" s="352"/>
+      <c r="AW4" s="353" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="373"/>
-      <c r="AY4" s="374"/>
-      <c r="AZ4" s="231">
+      <c r="AX4" s="354"/>
+      <c r="AY4" s="355"/>
+      <c r="AZ4" s="226">
         <v>44676</v>
       </c>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="232"/>
-      <c r="BC4" s="232"/>
-      <c r="BD4" s="232"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="372" t="s">
+      <c r="BA4" s="227"/>
+      <c r="BB4" s="227"/>
+      <c r="BC4" s="227"/>
+      <c r="BD4" s="227"/>
+      <c r="BE4" s="227"/>
+      <c r="BF4" s="353" t="s">
         <v>6</v>
       </c>
-      <c r="BG4" s="373"/>
-      <c r="BH4" s="374"/>
-      <c r="BI4" s="375" t="s">
+      <c r="BG4" s="354"/>
+      <c r="BH4" s="355"/>
+      <c r="BI4" s="356" t="s">
         <v>19</v>
       </c>
-      <c r="BJ4" s="232"/>
-      <c r="BK4" s="232"/>
-      <c r="BL4" s="232"/>
+      <c r="BJ4" s="227"/>
+      <c r="BK4" s="227"/>
+      <c r="BL4" s="227"/>
     </row>
     <row r="5" spans="1:64" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240" t="s">
-        <v>280</v>
-      </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="237" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
+        <v>279</v>
+      </c>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="238"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="242"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="210"/>
-      <c r="AQ5" s="210"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="210"/>
-      <c r="AU5" s="210"/>
-      <c r="AV5" s="211"/>
-      <c r="AW5" s="243" t="s">
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="234"/>
+      <c r="V5" s="237"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
+      <c r="AB5" s="238"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="238"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="238"/>
+      <c r="AI5" s="238"/>
+      <c r="AJ5" s="238"/>
+      <c r="AK5" s="238"/>
+      <c r="AL5" s="238"/>
+      <c r="AM5" s="238"/>
+      <c r="AN5" s="238"/>
+      <c r="AO5" s="238"/>
+      <c r="AP5" s="238"/>
+      <c r="AQ5" s="238"/>
+      <c r="AR5" s="238"/>
+      <c r="AS5" s="238"/>
+      <c r="AT5" s="238"/>
+      <c r="AU5" s="238"/>
+      <c r="AV5" s="239"/>
+      <c r="AW5" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="244"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="209"/>
-      <c r="BE5" s="209"/>
-      <c r="BF5" s="243" t="s">
+      <c r="AX5" s="241"/>
+      <c r="AY5" s="242"/>
+      <c r="AZ5" s="241"/>
+      <c r="BA5" s="241"/>
+      <c r="BB5" s="241"/>
+      <c r="BC5" s="241"/>
+      <c r="BD5" s="241"/>
+      <c r="BE5" s="241"/>
+      <c r="BF5" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="244"/>
-      <c r="BI5" s="242"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
+      <c r="BG5" s="241"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="237"/>
+      <c r="BJ5" s="238"/>
+      <c r="BK5" s="238"/>
+      <c r="BL5" s="238"/>
     </row>
     <row r="6" spans="1:64" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A6" s="350" t="s">
+      <c r="A6" s="331" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="351"/>
-      <c r="C6" s="351"/>
-      <c r="D6" s="351"/>
-      <c r="E6" s="351"/>
-      <c r="F6" s="351"/>
-      <c r="G6" s="351"/>
-      <c r="H6" s="351"/>
-      <c r="I6" s="351"/>
-      <c r="J6" s="351"/>
-      <c r="K6" s="351"/>
-      <c r="L6" s="351"/>
-      <c r="M6" s="351"/>
-      <c r="N6" s="351"/>
-      <c r="O6" s="351"/>
-      <c r="P6" s="351"/>
-      <c r="Q6" s="351"/>
-      <c r="R6" s="351"/>
-      <c r="S6" s="351"/>
-      <c r="T6" s="351"/>
-      <c r="U6" s="351"/>
-      <c r="V6" s="351"/>
-      <c r="W6" s="351"/>
-      <c r="X6" s="351"/>
-      <c r="Y6" s="351"/>
-      <c r="Z6" s="351"/>
-      <c r="AA6" s="351"/>
-      <c r="AB6" s="352"/>
-      <c r="AC6" s="350" t="s">
+      <c r="B6" s="332"/>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="332"/>
+      <c r="M6" s="332"/>
+      <c r="N6" s="332"/>
+      <c r="O6" s="332"/>
+      <c r="P6" s="332"/>
+      <c r="Q6" s="332"/>
+      <c r="R6" s="332"/>
+      <c r="S6" s="332"/>
+      <c r="T6" s="332"/>
+      <c r="U6" s="332"/>
+      <c r="V6" s="332"/>
+      <c r="W6" s="332"/>
+      <c r="X6" s="332"/>
+      <c r="Y6" s="332"/>
+      <c r="Z6" s="332"/>
+      <c r="AA6" s="332"/>
+      <c r="AB6" s="333"/>
+      <c r="AC6" s="331" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="351"/>
-      <c r="AE6" s="351"/>
-      <c r="AF6" s="351"/>
-      <c r="AG6" s="351"/>
-      <c r="AH6" s="351"/>
-      <c r="AI6" s="351"/>
-      <c r="AJ6" s="351"/>
-      <c r="AK6" s="351"/>
-      <c r="AL6" s="351"/>
-      <c r="AM6" s="351"/>
-      <c r="AN6" s="352"/>
-      <c r="AO6" s="353" t="s">
+      <c r="AD6" s="332"/>
+      <c r="AE6" s="332"/>
+      <c r="AF6" s="332"/>
+      <c r="AG6" s="332"/>
+      <c r="AH6" s="332"/>
+      <c r="AI6" s="332"/>
+      <c r="AJ6" s="332"/>
+      <c r="AK6" s="332"/>
+      <c r="AL6" s="332"/>
+      <c r="AM6" s="332"/>
+      <c r="AN6" s="333"/>
+      <c r="AO6" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="AP6" s="354"/>
-      <c r="AQ6" s="354"/>
-      <c r="AR6" s="354"/>
-      <c r="AS6" s="354"/>
-      <c r="AT6" s="354"/>
-      <c r="AU6" s="354"/>
-      <c r="AV6" s="354"/>
-      <c r="AW6" s="354"/>
-      <c r="AX6" s="354"/>
-      <c r="AY6" s="354"/>
-      <c r="AZ6" s="354"/>
-      <c r="BA6" s="354"/>
-      <c r="BB6" s="354"/>
-      <c r="BC6" s="354"/>
-      <c r="BD6" s="354"/>
-      <c r="BE6" s="354"/>
-      <c r="BF6" s="354"/>
-      <c r="BG6" s="354"/>
-      <c r="BH6" s="354"/>
-      <c r="BI6" s="354"/>
-      <c r="BJ6" s="354"/>
-      <c r="BK6" s="354"/>
-      <c r="BL6" s="355"/>
+      <c r="AP6" s="335"/>
+      <c r="AQ6" s="335"/>
+      <c r="AR6" s="335"/>
+      <c r="AS6" s="335"/>
+      <c r="AT6" s="335"/>
+      <c r="AU6" s="335"/>
+      <c r="AV6" s="335"/>
+      <c r="AW6" s="335"/>
+      <c r="AX6" s="335"/>
+      <c r="AY6" s="335"/>
+      <c r="AZ6" s="335"/>
+      <c r="BA6" s="335"/>
+      <c r="BB6" s="335"/>
+      <c r="BC6" s="335"/>
+      <c r="BD6" s="335"/>
+      <c r="BE6" s="335"/>
+      <c r="BF6" s="335"/>
+      <c r="BG6" s="335"/>
+      <c r="BH6" s="335"/>
+      <c r="BI6" s="335"/>
+      <c r="BJ6" s="335"/>
+      <c r="BK6" s="335"/>
+      <c r="BL6" s="336"/>
     </row>
     <row r="7" spans="1:64" ht="24.75" customHeight="1" thickBot="1">
       <c r="A7" s="81" t="s">
@@ -17929,7 +17930,7 @@
       <c r="AL7" s="324"/>
       <c r="AM7" s="324"/>
       <c r="AN7" s="325"/>
-      <c r="AO7" s="356"/>
+      <c r="AO7" s="337"/>
       <c r="AP7" s="326"/>
       <c r="AQ7" s="326"/>
       <c r="AR7" s="326"/>
@@ -17952,141 +17953,141 @@
       <c r="BI7" s="326"/>
       <c r="BJ7" s="326"/>
       <c r="BK7" s="326"/>
-      <c r="BL7" s="357"/>
+      <c r="BL7" s="338"/>
     </row>
     <row r="8" spans="1:64" ht="13.5" customHeight="1" thickTop="1">
       <c r="A8" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="331" t="s">
+      <c r="B8" s="360" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="332"/>
-      <c r="K8" s="332"/>
-      <c r="L8" s="333"/>
-      <c r="M8" s="334" t="s">
+      <c r="C8" s="361"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="361"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="361"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="361"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="361"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="363" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="335"/>
-      <c r="O8" s="335"/>
-      <c r="P8" s="336"/>
-      <c r="Q8" s="337">
+      <c r="N8" s="364"/>
+      <c r="O8" s="364"/>
+      <c r="P8" s="365"/>
+      <c r="Q8" s="366">
         <v>8</v>
       </c>
-      <c r="R8" s="338"/>
-      <c r="S8" s="339" t="s">
+      <c r="R8" s="367"/>
+      <c r="S8" s="368" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="340"/>
-      <c r="U8" s="276" t="s">
+      <c r="T8" s="369"/>
+      <c r="U8" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V8" s="278"/>
-      <c r="W8" s="334" t="s">
+      <c r="V8" s="289"/>
+      <c r="W8" s="363" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="336"/>
+      <c r="X8" s="365"/>
       <c r="Y8" s="305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z8" s="306"/>
       <c r="AA8" s="306"/>
       <c r="AB8" s="307"/>
-      <c r="AC8" s="341" t="s">
+      <c r="AC8" s="370" t="s">
         <v>85</v>
       </c>
-      <c r="AD8" s="342"/>
-      <c r="AE8" s="342"/>
-      <c r="AF8" s="342"/>
-      <c r="AG8" s="343"/>
-      <c r="AH8" s="344" t="s">
+      <c r="AD8" s="371"/>
+      <c r="AE8" s="371"/>
+      <c r="AF8" s="371"/>
+      <c r="AG8" s="372"/>
+      <c r="AH8" s="373" t="s">
         <v>84</v>
       </c>
-      <c r="AI8" s="345"/>
-      <c r="AJ8" s="345"/>
-      <c r="AK8" s="345"/>
-      <c r="AL8" s="345"/>
-      <c r="AM8" s="345"/>
-      <c r="AN8" s="346"/>
-      <c r="AO8" s="328"/>
-      <c r="AP8" s="329"/>
-      <c r="AQ8" s="329"/>
-      <c r="AR8" s="329"/>
-      <c r="AS8" s="329"/>
-      <c r="AT8" s="329"/>
-      <c r="AU8" s="329"/>
-      <c r="AV8" s="329"/>
-      <c r="AW8" s="329"/>
-      <c r="AX8" s="329"/>
-      <c r="AY8" s="329"/>
-      <c r="AZ8" s="329"/>
-      <c r="BA8" s="329"/>
-      <c r="BB8" s="329"/>
-      <c r="BC8" s="329"/>
-      <c r="BD8" s="329"/>
-      <c r="BE8" s="329"/>
-      <c r="BF8" s="329"/>
-      <c r="BG8" s="329"/>
-      <c r="BH8" s="329"/>
-      <c r="BI8" s="329"/>
-      <c r="BJ8" s="329"/>
-      <c r="BK8" s="329"/>
-      <c r="BL8" s="330"/>
+      <c r="AI8" s="374"/>
+      <c r="AJ8" s="374"/>
+      <c r="AK8" s="374"/>
+      <c r="AL8" s="374"/>
+      <c r="AM8" s="374"/>
+      <c r="AN8" s="375"/>
+      <c r="AO8" s="357"/>
+      <c r="AP8" s="358"/>
+      <c r="AQ8" s="358"/>
+      <c r="AR8" s="358"/>
+      <c r="AS8" s="358"/>
+      <c r="AT8" s="358"/>
+      <c r="AU8" s="358"/>
+      <c r="AV8" s="358"/>
+      <c r="AW8" s="358"/>
+      <c r="AX8" s="358"/>
+      <c r="AY8" s="358"/>
+      <c r="AZ8" s="358"/>
+      <c r="BA8" s="358"/>
+      <c r="BB8" s="358"/>
+      <c r="BC8" s="358"/>
+      <c r="BD8" s="358"/>
+      <c r="BE8" s="358"/>
+      <c r="BF8" s="358"/>
+      <c r="BG8" s="358"/>
+      <c r="BH8" s="358"/>
+      <c r="BI8" s="358"/>
+      <c r="BJ8" s="358"/>
+      <c r="BK8" s="358"/>
+      <c r="BL8" s="359"/>
     </row>
     <row r="9" spans="1:64" ht="13.5" customHeight="1">
       <c r="A9" s="83">
         <v>2</v>
       </c>
-      <c r="B9" s="347" t="s">
+      <c r="B9" s="328" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="348"/>
-      <c r="D9" s="348"/>
-      <c r="E9" s="348"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="348"/>
-      <c r="H9" s="348"/>
-      <c r="I9" s="348"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="349"/>
-      <c r="M9" s="276" t="s">
+      <c r="C9" s="329"/>
+      <c r="D9" s="329"/>
+      <c r="E9" s="329"/>
+      <c r="F9" s="329"/>
+      <c r="G9" s="329"/>
+      <c r="H9" s="329"/>
+      <c r="I9" s="329"/>
+      <c r="J9" s="329"/>
+      <c r="K9" s="329"/>
+      <c r="L9" s="330"/>
+      <c r="M9" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="277"/>
-      <c r="O9" s="277"/>
-      <c r="P9" s="278"/>
+      <c r="N9" s="280"/>
+      <c r="O9" s="280"/>
+      <c r="P9" s="289"/>
       <c r="Q9" s="308" t="s">
-        <v>236</v>
-      </c>
-      <c r="R9" s="284"/>
-      <c r="S9" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="R9" s="295"/>
+      <c r="S9" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="286"/>
-      <c r="U9" s="276" t="s">
+      <c r="T9" s="297"/>
+      <c r="U9" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="278"/>
-      <c r="W9" s="287" t="s">
+      <c r="V9" s="289"/>
+      <c r="W9" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X9" s="288"/>
-      <c r="Y9" s="289" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="291"/>
+      <c r="X9" s="273"/>
+      <c r="Y9" s="274" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="276"/>
       <c r="AC9" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD9" s="300"/>
       <c r="AE9" s="300"/>
@@ -18101,39 +18102,39 @@
       <c r="AL9" s="303"/>
       <c r="AM9" s="303"/>
       <c r="AN9" s="304"/>
-      <c r="AO9" s="272" t="s">
+      <c r="AO9" s="282" t="s">
         <v>79</v>
       </c>
-      <c r="AP9" s="273"/>
-      <c r="AQ9" s="273"/>
-      <c r="AR9" s="273"/>
-      <c r="AS9" s="273"/>
-      <c r="AT9" s="273"/>
-      <c r="AU9" s="273"/>
-      <c r="AV9" s="273"/>
-      <c r="AW9" s="273"/>
-      <c r="AX9" s="273"/>
-      <c r="AY9" s="273"/>
-      <c r="AZ9" s="273"/>
-      <c r="BA9" s="273"/>
-      <c r="BB9" s="273"/>
-      <c r="BC9" s="273"/>
-      <c r="BD9" s="273"/>
-      <c r="BE9" s="273"/>
-      <c r="BF9" s="273"/>
-      <c r="BG9" s="273"/>
-      <c r="BH9" s="273"/>
-      <c r="BI9" s="273"/>
-      <c r="BJ9" s="273"/>
-      <c r="BK9" s="273"/>
-      <c r="BL9" s="274"/>
+      <c r="AP9" s="283"/>
+      <c r="AQ9" s="283"/>
+      <c r="AR9" s="283"/>
+      <c r="AS9" s="283"/>
+      <c r="AT9" s="283"/>
+      <c r="AU9" s="283"/>
+      <c r="AV9" s="283"/>
+      <c r="AW9" s="283"/>
+      <c r="AX9" s="283"/>
+      <c r="AY9" s="283"/>
+      <c r="AZ9" s="283"/>
+      <c r="BA9" s="283"/>
+      <c r="BB9" s="283"/>
+      <c r="BC9" s="283"/>
+      <c r="BD9" s="283"/>
+      <c r="BE9" s="283"/>
+      <c r="BF9" s="283"/>
+      <c r="BG9" s="283"/>
+      <c r="BH9" s="283"/>
+      <c r="BI9" s="283"/>
+      <c r="BJ9" s="283"/>
+      <c r="BK9" s="283"/>
+      <c r="BL9" s="284"/>
     </row>
     <row r="10" spans="1:64" ht="13.5" customHeight="1">
       <c r="A10" s="83">
         <v>3</v>
       </c>
       <c r="B10" s="206" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="207"/>
       <c r="D10" s="207"/>
@@ -18144,37 +18145,37 @@
       <c r="I10" s="207"/>
       <c r="J10" s="207"/>
       <c r="K10" s="207"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="276" t="s">
+      <c r="L10" s="288"/>
+      <c r="M10" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="277"/>
-      <c r="O10" s="277"/>
-      <c r="P10" s="278"/>
+      <c r="N10" s="280"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="289"/>
       <c r="Q10" s="308" t="s">
-        <v>236</v>
-      </c>
-      <c r="R10" s="284"/>
-      <c r="S10" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="R10" s="295"/>
+      <c r="S10" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="286"/>
-      <c r="U10" s="276" t="s">
+      <c r="T10" s="297"/>
+      <c r="U10" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="278"/>
-      <c r="W10" s="287" t="s">
+      <c r="V10" s="289"/>
+      <c r="W10" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X10" s="288"/>
+      <c r="X10" s="273"/>
       <c r="Y10" s="305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z10" s="306"/>
       <c r="AA10" s="306"/>
       <c r="AB10" s="307"/>
       <c r="AC10" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD10" s="300"/>
       <c r="AE10" s="300"/>
@@ -18189,7 +18190,7 @@
       <c r="AL10" s="303"/>
       <c r="AM10" s="303"/>
       <c r="AN10" s="304"/>
-      <c r="AO10" s="312"/>
+      <c r="AO10" s="309"/>
       <c r="AP10" s="310"/>
       <c r="AQ10" s="310"/>
       <c r="AR10" s="310"/>
@@ -18218,49 +18219,49 @@
       <c r="A11" s="83">
         <v>4</v>
       </c>
-      <c r="B11" s="313" t="s">
+      <c r="B11" s="312" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="314"/>
-      <c r="D11" s="314"/>
-      <c r="E11" s="314"/>
-      <c r="F11" s="314"/>
-      <c r="G11" s="314"/>
-      <c r="H11" s="314"/>
-      <c r="I11" s="314"/>
-      <c r="J11" s="314"/>
-      <c r="K11" s="314"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="276" t="s">
+      <c r="C11" s="313"/>
+      <c r="D11" s="313"/>
+      <c r="E11" s="313"/>
+      <c r="F11" s="313"/>
+      <c r="G11" s="313"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="313"/>
+      <c r="J11" s="313"/>
+      <c r="K11" s="313"/>
+      <c r="L11" s="314"/>
+      <c r="M11" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="277"/>
-      <c r="O11" s="277"/>
-      <c r="P11" s="278"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="280"/>
+      <c r="P11" s="289"/>
       <c r="Q11" s="308" t="s">
-        <v>236</v>
-      </c>
-      <c r="R11" s="284"/>
-      <c r="S11" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="R11" s="295"/>
+      <c r="S11" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T11" s="286"/>
-      <c r="U11" s="276" t="s">
+      <c r="T11" s="297"/>
+      <c r="U11" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V11" s="278"/>
-      <c r="W11" s="287" t="s">
+      <c r="V11" s="289"/>
+      <c r="W11" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X11" s="288"/>
+      <c r="X11" s="273"/>
       <c r="Y11" s="305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z11" s="306"/>
       <c r="AA11" s="306"/>
       <c r="AB11" s="307"/>
       <c r="AC11" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD11" s="300"/>
       <c r="AE11" s="300"/>
@@ -18275,7 +18276,7 @@
       <c r="AL11" s="303"/>
       <c r="AM11" s="303"/>
       <c r="AN11" s="304"/>
-      <c r="AO11" s="309"/>
+      <c r="AO11" s="315"/>
       <c r="AP11" s="310"/>
       <c r="AQ11" s="310"/>
       <c r="AR11" s="310"/>
@@ -18305,7 +18306,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="206" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C12" s="207"/>
       <c r="D12" s="207"/>
@@ -18316,37 +18317,37 @@
       <c r="I12" s="207"/>
       <c r="J12" s="207"/>
       <c r="K12" s="207"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="276" t="s">
+      <c r="L12" s="288"/>
+      <c r="M12" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="277"/>
-      <c r="O12" s="277"/>
-      <c r="P12" s="278"/>
+      <c r="N12" s="280"/>
+      <c r="O12" s="280"/>
+      <c r="P12" s="289"/>
       <c r="Q12" s="308" t="s">
-        <v>236</v>
-      </c>
-      <c r="R12" s="284"/>
-      <c r="S12" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="R12" s="295"/>
+      <c r="S12" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="286"/>
-      <c r="U12" s="276" t="s">
+      <c r="T12" s="297"/>
+      <c r="U12" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V12" s="278"/>
-      <c r="W12" s="287" t="s">
+      <c r="V12" s="289"/>
+      <c r="W12" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X12" s="288"/>
+      <c r="X12" s="273"/>
       <c r="Y12" s="305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z12" s="306"/>
       <c r="AA12" s="306"/>
       <c r="AB12" s="307"/>
       <c r="AC12" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD12" s="300"/>
       <c r="AE12" s="300"/>
@@ -18361,39 +18362,39 @@
       <c r="AL12" s="303"/>
       <c r="AM12" s="303"/>
       <c r="AN12" s="304"/>
-      <c r="AO12" s="272" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP12" s="273"/>
-      <c r="AQ12" s="273"/>
-      <c r="AR12" s="273"/>
-      <c r="AS12" s="273"/>
-      <c r="AT12" s="273"/>
-      <c r="AU12" s="273"/>
-      <c r="AV12" s="273"/>
-      <c r="AW12" s="273"/>
-      <c r="AX12" s="273"/>
-      <c r="AY12" s="273"/>
-      <c r="AZ12" s="273"/>
-      <c r="BA12" s="273"/>
-      <c r="BB12" s="273"/>
-      <c r="BC12" s="273"/>
-      <c r="BD12" s="273"/>
-      <c r="BE12" s="273"/>
-      <c r="BF12" s="273"/>
-      <c r="BG12" s="273"/>
-      <c r="BH12" s="273"/>
-      <c r="BI12" s="273"/>
-      <c r="BJ12" s="273"/>
-      <c r="BK12" s="273"/>
-      <c r="BL12" s="274"/>
+      <c r="AO12" s="282" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP12" s="283"/>
+      <c r="AQ12" s="283"/>
+      <c r="AR12" s="283"/>
+      <c r="AS12" s="283"/>
+      <c r="AT12" s="283"/>
+      <c r="AU12" s="283"/>
+      <c r="AV12" s="283"/>
+      <c r="AW12" s="283"/>
+      <c r="AX12" s="283"/>
+      <c r="AY12" s="283"/>
+      <c r="AZ12" s="283"/>
+      <c r="BA12" s="283"/>
+      <c r="BB12" s="283"/>
+      <c r="BC12" s="283"/>
+      <c r="BD12" s="283"/>
+      <c r="BE12" s="283"/>
+      <c r="BF12" s="283"/>
+      <c r="BG12" s="283"/>
+      <c r="BH12" s="283"/>
+      <c r="BI12" s="283"/>
+      <c r="BJ12" s="283"/>
+      <c r="BK12" s="283"/>
+      <c r="BL12" s="284"/>
     </row>
     <row r="13" spans="1:64" ht="13.5" customHeight="1">
       <c r="A13" s="83">
         <v>6</v>
       </c>
       <c r="B13" s="206" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="207"/>
       <c r="D13" s="207"/>
@@ -18404,44 +18405,44 @@
       <c r="I13" s="207"/>
       <c r="J13" s="207"/>
       <c r="K13" s="207"/>
-      <c r="L13" s="275"/>
-      <c r="M13" s="276" t="s">
+      <c r="L13" s="288"/>
+      <c r="M13" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="278"/>
+      <c r="N13" s="280"/>
+      <c r="O13" s="280"/>
+      <c r="P13" s="289"/>
       <c r="Q13" s="308" t="s">
-        <v>236</v>
-      </c>
-      <c r="R13" s="284"/>
-      <c r="S13" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="R13" s="295"/>
+      <c r="S13" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T13" s="286"/>
-      <c r="U13" s="276" t="s">
+      <c r="T13" s="297"/>
+      <c r="U13" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V13" s="278"/>
-      <c r="W13" s="287" t="s">
+      <c r="V13" s="289"/>
+      <c r="W13" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X13" s="288"/>
+      <c r="X13" s="273"/>
       <c r="Y13" s="305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z13" s="306"/>
       <c r="AA13" s="306"/>
       <c r="AB13" s="307"/>
       <c r="AC13" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD13" s="300"/>
       <c r="AE13" s="300"/>
       <c r="AF13" s="300"/>
       <c r="AG13" s="301"/>
       <c r="AH13" s="302" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI13" s="303"/>
       <c r="AJ13" s="303"/>
@@ -18449,32 +18450,32 @@
       <c r="AL13" s="303"/>
       <c r="AM13" s="303"/>
       <c r="AN13" s="304"/>
-      <c r="AO13" s="272" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP13" s="273"/>
-      <c r="AQ13" s="273"/>
-      <c r="AR13" s="273"/>
-      <c r="AS13" s="273"/>
-      <c r="AT13" s="273"/>
-      <c r="AU13" s="273"/>
-      <c r="AV13" s="273"/>
-      <c r="AW13" s="273"/>
-      <c r="AX13" s="273"/>
-      <c r="AY13" s="273"/>
-      <c r="AZ13" s="273"/>
-      <c r="BA13" s="273"/>
-      <c r="BB13" s="273"/>
-      <c r="BC13" s="273"/>
-      <c r="BD13" s="273"/>
-      <c r="BE13" s="273"/>
-      <c r="BF13" s="273"/>
-      <c r="BG13" s="273"/>
-      <c r="BH13" s="273"/>
-      <c r="BI13" s="273"/>
-      <c r="BJ13" s="273"/>
-      <c r="BK13" s="273"/>
-      <c r="BL13" s="274"/>
+      <c r="AO13" s="282" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP13" s="283"/>
+      <c r="AQ13" s="283"/>
+      <c r="AR13" s="283"/>
+      <c r="AS13" s="283"/>
+      <c r="AT13" s="283"/>
+      <c r="AU13" s="283"/>
+      <c r="AV13" s="283"/>
+      <c r="AW13" s="283"/>
+      <c r="AX13" s="283"/>
+      <c r="AY13" s="283"/>
+      <c r="AZ13" s="283"/>
+      <c r="BA13" s="283"/>
+      <c r="BB13" s="283"/>
+      <c r="BC13" s="283"/>
+      <c r="BD13" s="283"/>
+      <c r="BE13" s="283"/>
+      <c r="BF13" s="283"/>
+      <c r="BG13" s="283"/>
+      <c r="BH13" s="283"/>
+      <c r="BI13" s="283"/>
+      <c r="BJ13" s="283"/>
+      <c r="BK13" s="283"/>
+      <c r="BL13" s="284"/>
     </row>
     <row r="14" spans="1:64" ht="13.5" customHeight="1">
       <c r="A14" s="83">
@@ -18492,37 +18493,37 @@
       <c r="I14" s="207"/>
       <c r="J14" s="207"/>
       <c r="K14" s="207"/>
-      <c r="L14" s="275"/>
-      <c r="M14" s="276" t="s">
+      <c r="L14" s="288"/>
+      <c r="M14" s="279" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="277"/>
-      <c r="O14" s="277"/>
-      <c r="P14" s="278"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="289"/>
       <c r="Q14" s="308" t="s">
-        <v>236</v>
-      </c>
-      <c r="R14" s="284"/>
-      <c r="S14" s="285" t="s">
+        <v>235</v>
+      </c>
+      <c r="R14" s="295"/>
+      <c r="S14" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T14" s="286"/>
-      <c r="U14" s="276" t="s">
+      <c r="T14" s="297"/>
+      <c r="U14" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V14" s="278"/>
-      <c r="W14" s="287" t="s">
+      <c r="V14" s="289"/>
+      <c r="W14" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X14" s="288"/>
+      <c r="X14" s="273"/>
       <c r="Y14" s="305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z14" s="306"/>
       <c r="AA14" s="306"/>
       <c r="AB14" s="307"/>
       <c r="AC14" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD14" s="300"/>
       <c r="AE14" s="300"/>
@@ -18537,32 +18538,32 @@
       <c r="AL14" s="303"/>
       <c r="AM14" s="303"/>
       <c r="AN14" s="304"/>
-      <c r="AO14" s="272" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP14" s="273"/>
-      <c r="AQ14" s="273"/>
-      <c r="AR14" s="273"/>
-      <c r="AS14" s="273"/>
-      <c r="AT14" s="273"/>
-      <c r="AU14" s="273"/>
-      <c r="AV14" s="273"/>
-      <c r="AW14" s="273"/>
-      <c r="AX14" s="273"/>
-      <c r="AY14" s="273"/>
-      <c r="AZ14" s="273"/>
-      <c r="BA14" s="273"/>
-      <c r="BB14" s="273"/>
-      <c r="BC14" s="273"/>
-      <c r="BD14" s="273"/>
-      <c r="BE14" s="273"/>
-      <c r="BF14" s="273"/>
-      <c r="BG14" s="273"/>
-      <c r="BH14" s="273"/>
-      <c r="BI14" s="273"/>
-      <c r="BJ14" s="273"/>
-      <c r="BK14" s="273"/>
-      <c r="BL14" s="274"/>
+      <c r="AO14" s="282" t="s">
+        <v>230</v>
+      </c>
+      <c r="AP14" s="283"/>
+      <c r="AQ14" s="283"/>
+      <c r="AR14" s="283"/>
+      <c r="AS14" s="283"/>
+      <c r="AT14" s="283"/>
+      <c r="AU14" s="283"/>
+      <c r="AV14" s="283"/>
+      <c r="AW14" s="283"/>
+      <c r="AX14" s="283"/>
+      <c r="AY14" s="283"/>
+      <c r="AZ14" s="283"/>
+      <c r="BA14" s="283"/>
+      <c r="BB14" s="283"/>
+      <c r="BC14" s="283"/>
+      <c r="BD14" s="283"/>
+      <c r="BE14" s="283"/>
+      <c r="BF14" s="283"/>
+      <c r="BG14" s="283"/>
+      <c r="BH14" s="283"/>
+      <c r="BI14" s="283"/>
+      <c r="BJ14" s="283"/>
+      <c r="BK14" s="283"/>
+      <c r="BL14" s="284"/>
     </row>
     <row r="15" spans="1:64" ht="13.5" customHeight="1">
       <c r="A15" s="83">
@@ -18580,37 +18581,37 @@
       <c r="I15" s="207"/>
       <c r="J15" s="207"/>
       <c r="K15" s="207"/>
-      <c r="L15" s="275"/>
-      <c r="M15" s="276" t="s">
+      <c r="L15" s="288"/>
+      <c r="M15" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="277"/>
-      <c r="O15" s="277"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="283">
+      <c r="N15" s="280"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="294">
         <v>8</v>
       </c>
-      <c r="R15" s="284"/>
-      <c r="S15" s="285" t="s">
+      <c r="R15" s="295"/>
+      <c r="S15" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T15" s="286"/>
-      <c r="U15" s="276" t="s">
+      <c r="T15" s="297"/>
+      <c r="U15" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V15" s="278"/>
-      <c r="W15" s="287" t="s">
+      <c r="V15" s="289"/>
+      <c r="W15" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X15" s="288"/>
-      <c r="Y15" s="289" t="s">
+      <c r="X15" s="273"/>
+      <c r="Y15" s="274" t="s">
         <v>88</v>
       </c>
-      <c r="Z15" s="290"/>
-      <c r="AA15" s="290"/>
-      <c r="AB15" s="291"/>
+      <c r="Z15" s="275"/>
+      <c r="AA15" s="275"/>
+      <c r="AB15" s="276"/>
       <c r="AC15" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD15" s="300"/>
       <c r="AE15" s="300"/>
@@ -18626,7 +18627,7 @@
       <c r="AM15" s="303"/>
       <c r="AN15" s="304"/>
       <c r="AO15" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:64" ht="13.5" customHeight="1">
@@ -18645,37 +18646,37 @@
       <c r="I16" s="207"/>
       <c r="J16" s="207"/>
       <c r="K16" s="207"/>
-      <c r="L16" s="275"/>
-      <c r="M16" s="276" t="s">
+      <c r="L16" s="288"/>
+      <c r="M16" s="279" t="s">
         <v>76</v>
       </c>
-      <c r="N16" s="277"/>
-      <c r="O16" s="277"/>
-      <c r="P16" s="278"/>
-      <c r="Q16" s="283">
+      <c r="N16" s="280"/>
+      <c r="O16" s="280"/>
+      <c r="P16" s="289"/>
+      <c r="Q16" s="294">
         <v>8</v>
       </c>
-      <c r="R16" s="284"/>
-      <c r="S16" s="285" t="s">
+      <c r="R16" s="295"/>
+      <c r="S16" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T16" s="286"/>
-      <c r="U16" s="276" t="s">
+      <c r="T16" s="297"/>
+      <c r="U16" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V16" s="278"/>
-      <c r="W16" s="287" t="s">
+      <c r="V16" s="289"/>
+      <c r="W16" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X16" s="288"/>
-      <c r="Y16" s="289" t="s">
+      <c r="X16" s="273"/>
+      <c r="Y16" s="274" t="s">
         <v>88</v>
       </c>
-      <c r="Z16" s="290"/>
-      <c r="AA16" s="290"/>
-      <c r="AB16" s="291"/>
+      <c r="Z16" s="275"/>
+      <c r="AA16" s="275"/>
+      <c r="AB16" s="276"/>
       <c r="AC16" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD16" s="300"/>
       <c r="AE16" s="300"/>
@@ -18690,32 +18691,32 @@
       <c r="AL16" s="303"/>
       <c r="AM16" s="303"/>
       <c r="AN16" s="304"/>
-      <c r="AO16" s="272" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP16" s="273"/>
-      <c r="AQ16" s="273"/>
-      <c r="AR16" s="273"/>
-      <c r="AS16" s="273"/>
-      <c r="AT16" s="273"/>
-      <c r="AU16" s="273"/>
-      <c r="AV16" s="273"/>
-      <c r="AW16" s="273"/>
-      <c r="AX16" s="273"/>
-      <c r="AY16" s="273"/>
-      <c r="AZ16" s="273"/>
-      <c r="BA16" s="273"/>
-      <c r="BB16" s="273"/>
-      <c r="BC16" s="273"/>
-      <c r="BD16" s="273"/>
-      <c r="BE16" s="273"/>
-      <c r="BF16" s="273"/>
-      <c r="BG16" s="273"/>
-      <c r="BH16" s="273"/>
-      <c r="BI16" s="273"/>
-      <c r="BJ16" s="273"/>
-      <c r="BK16" s="273"/>
-      <c r="BL16" s="274"/>
+      <c r="AO16" s="282" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP16" s="283"/>
+      <c r="AQ16" s="283"/>
+      <c r="AR16" s="283"/>
+      <c r="AS16" s="283"/>
+      <c r="AT16" s="283"/>
+      <c r="AU16" s="283"/>
+      <c r="AV16" s="283"/>
+      <c r="AW16" s="283"/>
+      <c r="AX16" s="283"/>
+      <c r="AY16" s="283"/>
+      <c r="AZ16" s="283"/>
+      <c r="BA16" s="283"/>
+      <c r="BB16" s="283"/>
+      <c r="BC16" s="283"/>
+      <c r="BD16" s="283"/>
+      <c r="BE16" s="283"/>
+      <c r="BF16" s="283"/>
+      <c r="BG16" s="283"/>
+      <c r="BH16" s="283"/>
+      <c r="BI16" s="283"/>
+      <c r="BJ16" s="283"/>
+      <c r="BK16" s="283"/>
+      <c r="BL16" s="284"/>
     </row>
     <row r="17" spans="1:64" ht="11.15" customHeight="1">
       <c r="A17" s="83">
@@ -18733,37 +18734,37 @@
       <c r="I17" s="207"/>
       <c r="J17" s="207"/>
       <c r="K17" s="207"/>
-      <c r="L17" s="275"/>
-      <c r="M17" s="276" t="s">
+      <c r="L17" s="288"/>
+      <c r="M17" s="279" t="s">
         <v>82</v>
       </c>
-      <c r="N17" s="277"/>
-      <c r="O17" s="277"/>
-      <c r="P17" s="278"/>
-      <c r="Q17" s="283">
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="294">
         <v>8</v>
       </c>
-      <c r="R17" s="284"/>
-      <c r="S17" s="285" t="s">
+      <c r="R17" s="295"/>
+      <c r="S17" s="296" t="s">
         <v>71</v>
       </c>
-      <c r="T17" s="286"/>
-      <c r="U17" s="276" t="s">
+      <c r="T17" s="297"/>
+      <c r="U17" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="V17" s="278"/>
-      <c r="W17" s="287" t="s">
+      <c r="V17" s="289"/>
+      <c r="W17" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="289" t="s">
+      <c r="X17" s="273"/>
+      <c r="Y17" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="Z17" s="290"/>
-      <c r="AA17" s="290"/>
-      <c r="AB17" s="291"/>
+      <c r="Z17" s="275"/>
+      <c r="AA17" s="275"/>
+      <c r="AB17" s="276"/>
       <c r="AC17" s="299" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="AD17" s="300"/>
       <c r="AE17" s="300"/>
@@ -18778,30 +18779,30 @@
       <c r="AL17" s="303"/>
       <c r="AM17" s="303"/>
       <c r="AN17" s="304"/>
-      <c r="AO17" s="272"/>
-      <c r="AP17" s="273"/>
-      <c r="AQ17" s="273"/>
-      <c r="AR17" s="273"/>
-      <c r="AS17" s="273"/>
-      <c r="AT17" s="273"/>
-      <c r="AU17" s="273"/>
-      <c r="AV17" s="273"/>
-      <c r="AW17" s="273"/>
-      <c r="AX17" s="273"/>
-      <c r="AY17" s="273"/>
-      <c r="AZ17" s="273"/>
-      <c r="BA17" s="273"/>
-      <c r="BB17" s="273"/>
-      <c r="BC17" s="273"/>
-      <c r="BD17" s="273"/>
-      <c r="BE17" s="273"/>
-      <c r="BF17" s="273"/>
-      <c r="BG17" s="273"/>
-      <c r="BH17" s="273"/>
-      <c r="BI17" s="273"/>
-      <c r="BJ17" s="273"/>
-      <c r="BK17" s="273"/>
-      <c r="BL17" s="274"/>
+      <c r="AO17" s="282"/>
+      <c r="AP17" s="283"/>
+      <c r="AQ17" s="283"/>
+      <c r="AR17" s="283"/>
+      <c r="AS17" s="283"/>
+      <c r="AT17" s="283"/>
+      <c r="AU17" s="283"/>
+      <c r="AV17" s="283"/>
+      <c r="AW17" s="283"/>
+      <c r="AX17" s="283"/>
+      <c r="AY17" s="283"/>
+      <c r="AZ17" s="283"/>
+      <c r="BA17" s="283"/>
+      <c r="BB17" s="283"/>
+      <c r="BC17" s="283"/>
+      <c r="BD17" s="283"/>
+      <c r="BE17" s="283"/>
+      <c r="BF17" s="283"/>
+      <c r="BG17" s="283"/>
+      <c r="BH17" s="283"/>
+      <c r="BI17" s="283"/>
+      <c r="BJ17" s="283"/>
+      <c r="BK17" s="283"/>
+      <c r="BL17" s="284"/>
     </row>
     <row r="18" spans="1:64" ht="14.25" customHeight="1">
       <c r="A18" s="83"/>
@@ -18815,59 +18816,59 @@
       <c r="I18" s="207"/>
       <c r="J18" s="207"/>
       <c r="K18" s="207"/>
-      <c r="L18" s="275"/>
-      <c r="M18" s="276"/>
-      <c r="N18" s="277"/>
-      <c r="O18" s="277"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="283"/>
-      <c r="R18" s="284"/>
-      <c r="S18" s="285"/>
-      <c r="T18" s="286"/>
-      <c r="U18" s="276"/>
-      <c r="V18" s="278"/>
-      <c r="W18" s="287"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="289"/>
-      <c r="Z18" s="290"/>
-      <c r="AA18" s="290"/>
-      <c r="AB18" s="291"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="296"/>
-      <c r="AF18" s="296"/>
-      <c r="AG18" s="297"/>
-      <c r="AH18" s="276"/>
-      <c r="AI18" s="277"/>
-      <c r="AJ18" s="277"/>
-      <c r="AK18" s="277"/>
-      <c r="AL18" s="277"/>
-      <c r="AM18" s="277"/>
-      <c r="AN18" s="294"/>
-      <c r="AO18" s="272"/>
-      <c r="AP18" s="273"/>
-      <c r="AQ18" s="273"/>
-      <c r="AR18" s="273"/>
-      <c r="AS18" s="273"/>
-      <c r="AT18" s="273"/>
-      <c r="AU18" s="273"/>
-      <c r="AV18" s="273"/>
-      <c r="AW18" s="273"/>
-      <c r="AX18" s="273"/>
-      <c r="AY18" s="273"/>
-      <c r="AZ18" s="273"/>
-      <c r="BA18" s="273"/>
-      <c r="BB18" s="273"/>
-      <c r="BC18" s="273"/>
-      <c r="BD18" s="273"/>
-      <c r="BE18" s="273"/>
-      <c r="BF18" s="273"/>
-      <c r="BG18" s="273"/>
-      <c r="BH18" s="273"/>
-      <c r="BI18" s="273"/>
-      <c r="BJ18" s="273"/>
-      <c r="BK18" s="273"/>
-      <c r="BL18" s="274"/>
+      <c r="L18" s="288"/>
+      <c r="M18" s="279"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="289"/>
+      <c r="Q18" s="294"/>
+      <c r="R18" s="295"/>
+      <c r="S18" s="296"/>
+      <c r="T18" s="297"/>
+      <c r="U18" s="279"/>
+      <c r="V18" s="289"/>
+      <c r="W18" s="272"/>
+      <c r="X18" s="273"/>
+      <c r="Y18" s="274"/>
+      <c r="Z18" s="275"/>
+      <c r="AA18" s="275"/>
+      <c r="AB18" s="276"/>
+      <c r="AC18" s="285"/>
+      <c r="AD18" s="286"/>
+      <c r="AE18" s="286"/>
+      <c r="AF18" s="286"/>
+      <c r="AG18" s="287"/>
+      <c r="AH18" s="279"/>
+      <c r="AI18" s="280"/>
+      <c r="AJ18" s="280"/>
+      <c r="AK18" s="280"/>
+      <c r="AL18" s="280"/>
+      <c r="AM18" s="280"/>
+      <c r="AN18" s="281"/>
+      <c r="AO18" s="282"/>
+      <c r="AP18" s="283"/>
+      <c r="AQ18" s="283"/>
+      <c r="AR18" s="283"/>
+      <c r="AS18" s="283"/>
+      <c r="AT18" s="283"/>
+      <c r="AU18" s="283"/>
+      <c r="AV18" s="283"/>
+      <c r="AW18" s="283"/>
+      <c r="AX18" s="283"/>
+      <c r="AY18" s="283"/>
+      <c r="AZ18" s="283"/>
+      <c r="BA18" s="283"/>
+      <c r="BB18" s="283"/>
+      <c r="BC18" s="283"/>
+      <c r="BD18" s="283"/>
+      <c r="BE18" s="283"/>
+      <c r="BF18" s="283"/>
+      <c r="BG18" s="283"/>
+      <c r="BH18" s="283"/>
+      <c r="BI18" s="283"/>
+      <c r="BJ18" s="283"/>
+      <c r="BK18" s="283"/>
+      <c r="BL18" s="284"/>
     </row>
     <row r="19" spans="1:64" ht="18.75" customHeight="1">
       <c r="A19" s="83"/>
@@ -18881,59 +18882,59 @@
       <c r="I19" s="207"/>
       <c r="J19" s="207"/>
       <c r="K19" s="207"/>
-      <c r="L19" s="275"/>
-      <c r="M19" s="276"/>
-      <c r="N19" s="277"/>
-      <c r="O19" s="277"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="283"/>
-      <c r="R19" s="284"/>
-      <c r="S19" s="285"/>
-      <c r="T19" s="286"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="278"/>
-      <c r="W19" s="287"/>
-      <c r="X19" s="288"/>
-      <c r="Y19" s="289"/>
-      <c r="Z19" s="290"/>
-      <c r="AA19" s="290"/>
-      <c r="AB19" s="291"/>
-      <c r="AC19" s="295"/>
-      <c r="AD19" s="296"/>
-      <c r="AE19" s="296"/>
-      <c r="AF19" s="296"/>
-      <c r="AG19" s="297"/>
-      <c r="AH19" s="276"/>
-      <c r="AI19" s="277"/>
-      <c r="AJ19" s="277"/>
-      <c r="AK19" s="277"/>
-      <c r="AL19" s="277"/>
-      <c r="AM19" s="277"/>
-      <c r="AN19" s="294"/>
-      <c r="AO19" s="272"/>
-      <c r="AP19" s="273"/>
-      <c r="AQ19" s="273"/>
-      <c r="AR19" s="273"/>
-      <c r="AS19" s="273"/>
-      <c r="AT19" s="273"/>
-      <c r="AU19" s="273"/>
-      <c r="AV19" s="273"/>
-      <c r="AW19" s="273"/>
-      <c r="AX19" s="273"/>
-      <c r="AY19" s="273"/>
-      <c r="AZ19" s="273"/>
-      <c r="BA19" s="273"/>
-      <c r="BB19" s="273"/>
-      <c r="BC19" s="273"/>
-      <c r="BD19" s="273"/>
-      <c r="BE19" s="273"/>
-      <c r="BF19" s="273"/>
-      <c r="BG19" s="273"/>
-      <c r="BH19" s="273"/>
-      <c r="BI19" s="273"/>
-      <c r="BJ19" s="273"/>
-      <c r="BK19" s="273"/>
-      <c r="BL19" s="274"/>
+      <c r="L19" s="288"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="289"/>
+      <c r="Q19" s="294"/>
+      <c r="R19" s="295"/>
+      <c r="S19" s="296"/>
+      <c r="T19" s="297"/>
+      <c r="U19" s="279"/>
+      <c r="V19" s="289"/>
+      <c r="W19" s="272"/>
+      <c r="X19" s="273"/>
+      <c r="Y19" s="274"/>
+      <c r="Z19" s="275"/>
+      <c r="AA19" s="275"/>
+      <c r="AB19" s="276"/>
+      <c r="AC19" s="285"/>
+      <c r="AD19" s="286"/>
+      <c r="AE19" s="286"/>
+      <c r="AF19" s="286"/>
+      <c r="AG19" s="287"/>
+      <c r="AH19" s="279"/>
+      <c r="AI19" s="280"/>
+      <c r="AJ19" s="280"/>
+      <c r="AK19" s="280"/>
+      <c r="AL19" s="280"/>
+      <c r="AM19" s="280"/>
+      <c r="AN19" s="281"/>
+      <c r="AO19" s="282"/>
+      <c r="AP19" s="283"/>
+      <c r="AQ19" s="283"/>
+      <c r="AR19" s="283"/>
+      <c r="AS19" s="283"/>
+      <c r="AT19" s="283"/>
+      <c r="AU19" s="283"/>
+      <c r="AV19" s="283"/>
+      <c r="AW19" s="283"/>
+      <c r="AX19" s="283"/>
+      <c r="AY19" s="283"/>
+      <c r="AZ19" s="283"/>
+      <c r="BA19" s="283"/>
+      <c r="BB19" s="283"/>
+      <c r="BC19" s="283"/>
+      <c r="BD19" s="283"/>
+      <c r="BE19" s="283"/>
+      <c r="BF19" s="283"/>
+      <c r="BG19" s="283"/>
+      <c r="BH19" s="283"/>
+      <c r="BI19" s="283"/>
+      <c r="BJ19" s="283"/>
+      <c r="BK19" s="283"/>
+      <c r="BL19" s="284"/>
     </row>
     <row r="20" spans="1:64" ht="12.75" customHeight="1">
       <c r="A20" s="83"/>
@@ -18947,59 +18948,59 @@
       <c r="I20" s="207"/>
       <c r="J20" s="207"/>
       <c r="K20" s="207"/>
-      <c r="L20" s="275"/>
-      <c r="M20" s="276"/>
-      <c r="N20" s="277"/>
-      <c r="O20" s="277"/>
-      <c r="P20" s="278"/>
-      <c r="Q20" s="283"/>
-      <c r="R20" s="284"/>
-      <c r="S20" s="285"/>
-      <c r="T20" s="286"/>
-      <c r="U20" s="276"/>
-      <c r="V20" s="278"/>
-      <c r="W20" s="287"/>
-      <c r="X20" s="288"/>
-      <c r="Y20" s="289"/>
-      <c r="Z20" s="290"/>
-      <c r="AA20" s="290"/>
-      <c r="AB20" s="291"/>
-      <c r="AC20" s="295"/>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="296"/>
-      <c r="AF20" s="296"/>
-      <c r="AG20" s="297"/>
-      <c r="AH20" s="276"/>
-      <c r="AI20" s="277"/>
-      <c r="AJ20" s="277"/>
-      <c r="AK20" s="277"/>
-      <c r="AL20" s="277"/>
-      <c r="AM20" s="277"/>
-      <c r="AN20" s="294"/>
-      <c r="AO20" s="272"/>
-      <c r="AP20" s="273"/>
-      <c r="AQ20" s="273"/>
-      <c r="AR20" s="273"/>
-      <c r="AS20" s="273"/>
-      <c r="AT20" s="273"/>
-      <c r="AU20" s="273"/>
-      <c r="AV20" s="273"/>
-      <c r="AW20" s="273"/>
-      <c r="AX20" s="273"/>
-      <c r="AY20" s="273"/>
-      <c r="AZ20" s="273"/>
-      <c r="BA20" s="273"/>
-      <c r="BB20" s="273"/>
-      <c r="BC20" s="273"/>
-      <c r="BD20" s="273"/>
-      <c r="BE20" s="273"/>
-      <c r="BF20" s="273"/>
-      <c r="BG20" s="273"/>
-      <c r="BH20" s="273"/>
-      <c r="BI20" s="273"/>
-      <c r="BJ20" s="273"/>
-      <c r="BK20" s="273"/>
-      <c r="BL20" s="274"/>
+      <c r="L20" s="288"/>
+      <c r="M20" s="279"/>
+      <c r="N20" s="280"/>
+      <c r="O20" s="280"/>
+      <c r="P20" s="289"/>
+      <c r="Q20" s="294"/>
+      <c r="R20" s="295"/>
+      <c r="S20" s="296"/>
+      <c r="T20" s="297"/>
+      <c r="U20" s="279"/>
+      <c r="V20" s="289"/>
+      <c r="W20" s="272"/>
+      <c r="X20" s="273"/>
+      <c r="Y20" s="274"/>
+      <c r="Z20" s="275"/>
+      <c r="AA20" s="275"/>
+      <c r="AB20" s="276"/>
+      <c r="AC20" s="285"/>
+      <c r="AD20" s="286"/>
+      <c r="AE20" s="286"/>
+      <c r="AF20" s="286"/>
+      <c r="AG20" s="287"/>
+      <c r="AH20" s="279"/>
+      <c r="AI20" s="280"/>
+      <c r="AJ20" s="280"/>
+      <c r="AK20" s="280"/>
+      <c r="AL20" s="280"/>
+      <c r="AM20" s="280"/>
+      <c r="AN20" s="281"/>
+      <c r="AO20" s="282"/>
+      <c r="AP20" s="283"/>
+      <c r="AQ20" s="283"/>
+      <c r="AR20" s="283"/>
+      <c r="AS20" s="283"/>
+      <c r="AT20" s="283"/>
+      <c r="AU20" s="283"/>
+      <c r="AV20" s="283"/>
+      <c r="AW20" s="283"/>
+      <c r="AX20" s="283"/>
+      <c r="AY20" s="283"/>
+      <c r="AZ20" s="283"/>
+      <c r="BA20" s="283"/>
+      <c r="BB20" s="283"/>
+      <c r="BC20" s="283"/>
+      <c r="BD20" s="283"/>
+      <c r="BE20" s="283"/>
+      <c r="BF20" s="283"/>
+      <c r="BG20" s="283"/>
+      <c r="BH20" s="283"/>
+      <c r="BI20" s="283"/>
+      <c r="BJ20" s="283"/>
+      <c r="BK20" s="283"/>
+      <c r="BL20" s="284"/>
     </row>
     <row r="21" spans="1:64" ht="13.5" customHeight="1">
       <c r="A21" s="83"/>
@@ -19013,59 +19014,59 @@
       <c r="I21" s="207"/>
       <c r="J21" s="207"/>
       <c r="K21" s="207"/>
-      <c r="L21" s="275"/>
-      <c r="M21" s="276"/>
-      <c r="N21" s="277"/>
-      <c r="O21" s="277"/>
-      <c r="P21" s="278"/>
-      <c r="Q21" s="283"/>
-      <c r="R21" s="284"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="286"/>
-      <c r="U21" s="276"/>
-      <c r="V21" s="278"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="288"/>
-      <c r="Y21" s="289"/>
-      <c r="Z21" s="290"/>
-      <c r="AA21" s="290"/>
-      <c r="AB21" s="291"/>
-      <c r="AC21" s="295"/>
-      <c r="AD21" s="296"/>
-      <c r="AE21" s="296"/>
-      <c r="AF21" s="296"/>
-      <c r="AG21" s="297"/>
-      <c r="AH21" s="276"/>
-      <c r="AI21" s="277"/>
-      <c r="AJ21" s="277"/>
-      <c r="AK21" s="277"/>
-      <c r="AL21" s="277"/>
-      <c r="AM21" s="277"/>
-      <c r="AN21" s="294"/>
-      <c r="AO21" s="272"/>
-      <c r="AP21" s="273"/>
-      <c r="AQ21" s="273"/>
-      <c r="AR21" s="273"/>
-      <c r="AS21" s="273"/>
-      <c r="AT21" s="273"/>
-      <c r="AU21" s="273"/>
-      <c r="AV21" s="273"/>
-      <c r="AW21" s="273"/>
-      <c r="AX21" s="273"/>
-      <c r="AY21" s="273"/>
-      <c r="AZ21" s="273"/>
-      <c r="BA21" s="273"/>
-      <c r="BB21" s="273"/>
-      <c r="BC21" s="273"/>
-      <c r="BD21" s="273"/>
-      <c r="BE21" s="273"/>
-      <c r="BF21" s="273"/>
-      <c r="BG21" s="273"/>
-      <c r="BH21" s="273"/>
-      <c r="BI21" s="273"/>
-      <c r="BJ21" s="273"/>
-      <c r="BK21" s="273"/>
-      <c r="BL21" s="274"/>
+      <c r="L21" s="288"/>
+      <c r="M21" s="279"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
+      <c r="P21" s="289"/>
+      <c r="Q21" s="294"/>
+      <c r="R21" s="295"/>
+      <c r="S21" s="296"/>
+      <c r="T21" s="297"/>
+      <c r="U21" s="279"/>
+      <c r="V21" s="289"/>
+      <c r="W21" s="272"/>
+      <c r="X21" s="273"/>
+      <c r="Y21" s="274"/>
+      <c r="Z21" s="275"/>
+      <c r="AA21" s="275"/>
+      <c r="AB21" s="276"/>
+      <c r="AC21" s="285"/>
+      <c r="AD21" s="286"/>
+      <c r="AE21" s="286"/>
+      <c r="AF21" s="286"/>
+      <c r="AG21" s="287"/>
+      <c r="AH21" s="279"/>
+      <c r="AI21" s="280"/>
+      <c r="AJ21" s="280"/>
+      <c r="AK21" s="280"/>
+      <c r="AL21" s="280"/>
+      <c r="AM21" s="280"/>
+      <c r="AN21" s="281"/>
+      <c r="AO21" s="282"/>
+      <c r="AP21" s="283"/>
+      <c r="AQ21" s="283"/>
+      <c r="AR21" s="283"/>
+      <c r="AS21" s="283"/>
+      <c r="AT21" s="283"/>
+      <c r="AU21" s="283"/>
+      <c r="AV21" s="283"/>
+      <c r="AW21" s="283"/>
+      <c r="AX21" s="283"/>
+      <c r="AY21" s="283"/>
+      <c r="AZ21" s="283"/>
+      <c r="BA21" s="283"/>
+      <c r="BB21" s="283"/>
+      <c r="BC21" s="283"/>
+      <c r="BD21" s="283"/>
+      <c r="BE21" s="283"/>
+      <c r="BF21" s="283"/>
+      <c r="BG21" s="283"/>
+      <c r="BH21" s="283"/>
+      <c r="BI21" s="283"/>
+      <c r="BJ21" s="283"/>
+      <c r="BK21" s="283"/>
+      <c r="BL21" s="284"/>
     </row>
     <row r="22" spans="1:64" ht="18" customHeight="1">
       <c r="A22" s="83"/>
@@ -19079,59 +19080,59 @@
       <c r="I22" s="207"/>
       <c r="J22" s="207"/>
       <c r="K22" s="207"/>
-      <c r="L22" s="275"/>
-      <c r="M22" s="276"/>
-      <c r="N22" s="277"/>
-      <c r="O22" s="277"/>
-      <c r="P22" s="278"/>
+      <c r="L22" s="288"/>
+      <c r="M22" s="279"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="289"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="85"/>
-      <c r="S22" s="285"/>
-      <c r="T22" s="286"/>
+      <c r="S22" s="296"/>
+      <c r="T22" s="297"/>
       <c r="U22" s="86"/>
       <c r="V22" s="87"/>
-      <c r="W22" s="287"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="289"/>
-      <c r="Z22" s="290"/>
-      <c r="AA22" s="290"/>
-      <c r="AB22" s="291"/>
-      <c r="AC22" s="295"/>
-      <c r="AD22" s="296"/>
-      <c r="AE22" s="296"/>
-      <c r="AF22" s="296"/>
-      <c r="AG22" s="297"/>
-      <c r="AH22" s="287"/>
-      <c r="AI22" s="293"/>
-      <c r="AJ22" s="293"/>
-      <c r="AK22" s="293"/>
-      <c r="AL22" s="293"/>
-      <c r="AM22" s="293"/>
+      <c r="W22" s="272"/>
+      <c r="X22" s="273"/>
+      <c r="Y22" s="274"/>
+      <c r="Z22" s="275"/>
+      <c r="AA22" s="275"/>
+      <c r="AB22" s="276"/>
+      <c r="AC22" s="285"/>
+      <c r="AD22" s="286"/>
+      <c r="AE22" s="286"/>
+      <c r="AF22" s="286"/>
+      <c r="AG22" s="287"/>
+      <c r="AH22" s="272"/>
+      <c r="AI22" s="278"/>
+      <c r="AJ22" s="278"/>
+      <c r="AK22" s="278"/>
+      <c r="AL22" s="278"/>
+      <c r="AM22" s="278"/>
       <c r="AN22" s="298"/>
-      <c r="AO22" s="272"/>
-      <c r="AP22" s="273"/>
-      <c r="AQ22" s="273"/>
-      <c r="AR22" s="273"/>
-      <c r="AS22" s="273"/>
-      <c r="AT22" s="273"/>
-      <c r="AU22" s="273"/>
-      <c r="AV22" s="273"/>
-      <c r="AW22" s="273"/>
-      <c r="AX22" s="273"/>
-      <c r="AY22" s="273"/>
-      <c r="AZ22" s="273"/>
-      <c r="BA22" s="273"/>
-      <c r="BB22" s="273"/>
-      <c r="BC22" s="273"/>
-      <c r="BD22" s="273"/>
-      <c r="BE22" s="273"/>
-      <c r="BF22" s="273"/>
-      <c r="BG22" s="273"/>
-      <c r="BH22" s="273"/>
-      <c r="BI22" s="273"/>
-      <c r="BJ22" s="273"/>
-      <c r="BK22" s="273"/>
-      <c r="BL22" s="274"/>
+      <c r="AO22" s="282"/>
+      <c r="AP22" s="283"/>
+      <c r="AQ22" s="283"/>
+      <c r="AR22" s="283"/>
+      <c r="AS22" s="283"/>
+      <c r="AT22" s="283"/>
+      <c r="AU22" s="283"/>
+      <c r="AV22" s="283"/>
+      <c r="AW22" s="283"/>
+      <c r="AX22" s="283"/>
+      <c r="AY22" s="283"/>
+      <c r="AZ22" s="283"/>
+      <c r="BA22" s="283"/>
+      <c r="BB22" s="283"/>
+      <c r="BC22" s="283"/>
+      <c r="BD22" s="283"/>
+      <c r="BE22" s="283"/>
+      <c r="BF22" s="283"/>
+      <c r="BG22" s="283"/>
+      <c r="BH22" s="283"/>
+      <c r="BI22" s="283"/>
+      <c r="BJ22" s="283"/>
+      <c r="BK22" s="283"/>
+      <c r="BL22" s="284"/>
     </row>
     <row r="23" spans="1:64" ht="18" customHeight="1">
       <c r="A23" s="83"/>
@@ -19409,59 +19410,59 @@
       <c r="I27" s="207"/>
       <c r="J27" s="207"/>
       <c r="K27" s="207"/>
-      <c r="L27" s="275"/>
-      <c r="M27" s="276"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="283"/>
-      <c r="R27" s="284"/>
-      <c r="S27" s="285"/>
-      <c r="T27" s="286"/>
-      <c r="U27" s="276"/>
-      <c r="V27" s="278"/>
-      <c r="W27" s="287"/>
-      <c r="X27" s="288"/>
-      <c r="Y27" s="289"/>
-      <c r="Z27" s="290"/>
-      <c r="AA27" s="290"/>
-      <c r="AB27" s="291"/>
-      <c r="AC27" s="295"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="296"/>
-      <c r="AF27" s="296"/>
-      <c r="AG27" s="297"/>
-      <c r="AH27" s="276"/>
-      <c r="AI27" s="277"/>
-      <c r="AJ27" s="277"/>
-      <c r="AK27" s="277"/>
-      <c r="AL27" s="277"/>
-      <c r="AM27" s="277"/>
-      <c r="AN27" s="294"/>
-      <c r="AO27" s="272"/>
-      <c r="AP27" s="273"/>
-      <c r="AQ27" s="273"/>
-      <c r="AR27" s="273"/>
-      <c r="AS27" s="273"/>
-      <c r="AT27" s="273"/>
-      <c r="AU27" s="273"/>
-      <c r="AV27" s="273"/>
-      <c r="AW27" s="273"/>
-      <c r="AX27" s="273"/>
-      <c r="AY27" s="273"/>
-      <c r="AZ27" s="273"/>
-      <c r="BA27" s="273"/>
-      <c r="BB27" s="273"/>
-      <c r="BC27" s="273"/>
-      <c r="BD27" s="273"/>
-      <c r="BE27" s="273"/>
-      <c r="BF27" s="273"/>
-      <c r="BG27" s="273"/>
-      <c r="BH27" s="273"/>
-      <c r="BI27" s="273"/>
-      <c r="BJ27" s="273"/>
-      <c r="BK27" s="273"/>
-      <c r="BL27" s="274"/>
+      <c r="L27" s="288"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="280"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="294"/>
+      <c r="R27" s="295"/>
+      <c r="S27" s="296"/>
+      <c r="T27" s="297"/>
+      <c r="U27" s="279"/>
+      <c r="V27" s="289"/>
+      <c r="W27" s="272"/>
+      <c r="X27" s="273"/>
+      <c r="Y27" s="274"/>
+      <c r="Z27" s="275"/>
+      <c r="AA27" s="275"/>
+      <c r="AB27" s="276"/>
+      <c r="AC27" s="285"/>
+      <c r="AD27" s="286"/>
+      <c r="AE27" s="286"/>
+      <c r="AF27" s="286"/>
+      <c r="AG27" s="287"/>
+      <c r="AH27" s="279"/>
+      <c r="AI27" s="280"/>
+      <c r="AJ27" s="280"/>
+      <c r="AK27" s="280"/>
+      <c r="AL27" s="280"/>
+      <c r="AM27" s="280"/>
+      <c r="AN27" s="281"/>
+      <c r="AO27" s="282"/>
+      <c r="AP27" s="283"/>
+      <c r="AQ27" s="283"/>
+      <c r="AR27" s="283"/>
+      <c r="AS27" s="283"/>
+      <c r="AT27" s="283"/>
+      <c r="AU27" s="283"/>
+      <c r="AV27" s="283"/>
+      <c r="AW27" s="283"/>
+      <c r="AX27" s="283"/>
+      <c r="AY27" s="283"/>
+      <c r="AZ27" s="283"/>
+      <c r="BA27" s="283"/>
+      <c r="BB27" s="283"/>
+      <c r="BC27" s="283"/>
+      <c r="BD27" s="283"/>
+      <c r="BE27" s="283"/>
+      <c r="BF27" s="283"/>
+      <c r="BG27" s="283"/>
+      <c r="BH27" s="283"/>
+      <c r="BI27" s="283"/>
+      <c r="BJ27" s="283"/>
+      <c r="BK27" s="283"/>
+      <c r="BL27" s="284"/>
     </row>
     <row r="28" spans="1:64" ht="13.5" customHeight="1">
       <c r="A28" s="83"/>
@@ -19475,59 +19476,59 @@
       <c r="I28" s="207"/>
       <c r="J28" s="207"/>
       <c r="K28" s="207"/>
-      <c r="L28" s="275"/>
-      <c r="M28" s="276"/>
-      <c r="N28" s="277"/>
-      <c r="O28" s="277"/>
-      <c r="P28" s="278"/>
-      <c r="Q28" s="279"/>
-      <c r="R28" s="280"/>
-      <c r="S28" s="285"/>
-      <c r="T28" s="286"/>
-      <c r="U28" s="276"/>
-      <c r="V28" s="278"/>
-      <c r="W28" s="287"/>
-      <c r="X28" s="288"/>
-      <c r="Y28" s="289"/>
-      <c r="Z28" s="290"/>
-      <c r="AA28" s="290"/>
-      <c r="AB28" s="291"/>
-      <c r="AC28" s="295"/>
-      <c r="AD28" s="296"/>
-      <c r="AE28" s="296"/>
-      <c r="AF28" s="296"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="276"/>
-      <c r="AI28" s="277"/>
-      <c r="AJ28" s="277"/>
-      <c r="AK28" s="277"/>
-      <c r="AL28" s="277"/>
-      <c r="AM28" s="277"/>
-      <c r="AN28" s="294"/>
-      <c r="AO28" s="272"/>
-      <c r="AP28" s="273"/>
-      <c r="AQ28" s="273"/>
-      <c r="AR28" s="273"/>
-      <c r="AS28" s="273"/>
-      <c r="AT28" s="273"/>
-      <c r="AU28" s="273"/>
-      <c r="AV28" s="273"/>
-      <c r="AW28" s="273"/>
-      <c r="AX28" s="273"/>
-      <c r="AY28" s="273"/>
-      <c r="AZ28" s="273"/>
-      <c r="BA28" s="273"/>
-      <c r="BB28" s="273"/>
-      <c r="BC28" s="273"/>
-      <c r="BD28" s="273"/>
-      <c r="BE28" s="273"/>
-      <c r="BF28" s="273"/>
-      <c r="BG28" s="273"/>
-      <c r="BH28" s="273"/>
-      <c r="BI28" s="273"/>
-      <c r="BJ28" s="273"/>
-      <c r="BK28" s="273"/>
-      <c r="BL28" s="274"/>
+      <c r="L28" s="288"/>
+      <c r="M28" s="279"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="289"/>
+      <c r="Q28" s="290"/>
+      <c r="R28" s="291"/>
+      <c r="S28" s="296"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="279"/>
+      <c r="V28" s="289"/>
+      <c r="W28" s="272"/>
+      <c r="X28" s="273"/>
+      <c r="Y28" s="274"/>
+      <c r="Z28" s="275"/>
+      <c r="AA28" s="275"/>
+      <c r="AB28" s="276"/>
+      <c r="AC28" s="285"/>
+      <c r="AD28" s="286"/>
+      <c r="AE28" s="286"/>
+      <c r="AF28" s="286"/>
+      <c r="AG28" s="287"/>
+      <c r="AH28" s="279"/>
+      <c r="AI28" s="280"/>
+      <c r="AJ28" s="280"/>
+      <c r="AK28" s="280"/>
+      <c r="AL28" s="280"/>
+      <c r="AM28" s="280"/>
+      <c r="AN28" s="281"/>
+      <c r="AO28" s="282"/>
+      <c r="AP28" s="283"/>
+      <c r="AQ28" s="283"/>
+      <c r="AR28" s="283"/>
+      <c r="AS28" s="283"/>
+      <c r="AT28" s="283"/>
+      <c r="AU28" s="283"/>
+      <c r="AV28" s="283"/>
+      <c r="AW28" s="283"/>
+      <c r="AX28" s="283"/>
+      <c r="AY28" s="283"/>
+      <c r="AZ28" s="283"/>
+      <c r="BA28" s="283"/>
+      <c r="BB28" s="283"/>
+      <c r="BC28" s="283"/>
+      <c r="BD28" s="283"/>
+      <c r="BE28" s="283"/>
+      <c r="BF28" s="283"/>
+      <c r="BG28" s="283"/>
+      <c r="BH28" s="283"/>
+      <c r="BI28" s="283"/>
+      <c r="BJ28" s="283"/>
+      <c r="BK28" s="283"/>
+      <c r="BL28" s="284"/>
     </row>
     <row r="29" spans="1:64" ht="13.5" customHeight="1">
       <c r="A29" s="83"/>
@@ -19541,59 +19542,59 @@
       <c r="I29" s="207"/>
       <c r="J29" s="207"/>
       <c r="K29" s="207"/>
-      <c r="L29" s="275"/>
-      <c r="M29" s="276"/>
-      <c r="N29" s="277"/>
-      <c r="O29" s="277"/>
-      <c r="P29" s="278"/>
-      <c r="Q29" s="283"/>
-      <c r="R29" s="284"/>
-      <c r="S29" s="285"/>
-      <c r="T29" s="286"/>
-      <c r="U29" s="276"/>
-      <c r="V29" s="278"/>
-      <c r="W29" s="287"/>
-      <c r="X29" s="288"/>
-      <c r="Y29" s="289"/>
-      <c r="Z29" s="290"/>
-      <c r="AA29" s="290"/>
-      <c r="AB29" s="291"/>
-      <c r="AC29" s="295"/>
-      <c r="AD29" s="296"/>
-      <c r="AE29" s="296"/>
-      <c r="AF29" s="296"/>
-      <c r="AG29" s="297"/>
-      <c r="AH29" s="276"/>
-      <c r="AI29" s="277"/>
-      <c r="AJ29" s="277"/>
-      <c r="AK29" s="277"/>
-      <c r="AL29" s="277"/>
-      <c r="AM29" s="277"/>
-      <c r="AN29" s="294"/>
-      <c r="AO29" s="272"/>
-      <c r="AP29" s="273"/>
-      <c r="AQ29" s="273"/>
-      <c r="AR29" s="273"/>
-      <c r="AS29" s="273"/>
-      <c r="AT29" s="273"/>
-      <c r="AU29" s="273"/>
-      <c r="AV29" s="273"/>
-      <c r="AW29" s="273"/>
-      <c r="AX29" s="273"/>
-      <c r="AY29" s="273"/>
-      <c r="AZ29" s="273"/>
-      <c r="BA29" s="273"/>
-      <c r="BB29" s="273"/>
-      <c r="BC29" s="273"/>
-      <c r="BD29" s="273"/>
-      <c r="BE29" s="273"/>
-      <c r="BF29" s="273"/>
-      <c r="BG29" s="273"/>
-      <c r="BH29" s="273"/>
-      <c r="BI29" s="273"/>
-      <c r="BJ29" s="273"/>
-      <c r="BK29" s="273"/>
-      <c r="BL29" s="274"/>
+      <c r="L29" s="288"/>
+      <c r="M29" s="279"/>
+      <c r="N29" s="280"/>
+      <c r="O29" s="280"/>
+      <c r="P29" s="289"/>
+      <c r="Q29" s="294"/>
+      <c r="R29" s="295"/>
+      <c r="S29" s="296"/>
+      <c r="T29" s="297"/>
+      <c r="U29" s="279"/>
+      <c r="V29" s="289"/>
+      <c r="W29" s="272"/>
+      <c r="X29" s="273"/>
+      <c r="Y29" s="274"/>
+      <c r="Z29" s="275"/>
+      <c r="AA29" s="275"/>
+      <c r="AB29" s="276"/>
+      <c r="AC29" s="285"/>
+      <c r="AD29" s="286"/>
+      <c r="AE29" s="286"/>
+      <c r="AF29" s="286"/>
+      <c r="AG29" s="287"/>
+      <c r="AH29" s="279"/>
+      <c r="AI29" s="280"/>
+      <c r="AJ29" s="280"/>
+      <c r="AK29" s="280"/>
+      <c r="AL29" s="280"/>
+      <c r="AM29" s="280"/>
+      <c r="AN29" s="281"/>
+      <c r="AO29" s="282"/>
+      <c r="AP29" s="283"/>
+      <c r="AQ29" s="283"/>
+      <c r="AR29" s="283"/>
+      <c r="AS29" s="283"/>
+      <c r="AT29" s="283"/>
+      <c r="AU29" s="283"/>
+      <c r="AV29" s="283"/>
+      <c r="AW29" s="283"/>
+      <c r="AX29" s="283"/>
+      <c r="AY29" s="283"/>
+      <c r="AZ29" s="283"/>
+      <c r="BA29" s="283"/>
+      <c r="BB29" s="283"/>
+      <c r="BC29" s="283"/>
+      <c r="BD29" s="283"/>
+      <c r="BE29" s="283"/>
+      <c r="BF29" s="283"/>
+      <c r="BG29" s="283"/>
+      <c r="BH29" s="283"/>
+      <c r="BI29" s="283"/>
+      <c r="BJ29" s="283"/>
+      <c r="BK29" s="283"/>
+      <c r="BL29" s="284"/>
     </row>
     <row r="30" spans="1:64" ht="13.5" customHeight="1">
       <c r="A30" s="83"/>
@@ -19607,59 +19608,59 @@
       <c r="I30" s="207"/>
       <c r="J30" s="207"/>
       <c r="K30" s="207"/>
-      <c r="L30" s="275"/>
-      <c r="M30" s="276"/>
-      <c r="N30" s="277"/>
-      <c r="O30" s="277"/>
-      <c r="P30" s="278"/>
-      <c r="Q30" s="283"/>
-      <c r="R30" s="284"/>
-      <c r="S30" s="285"/>
-      <c r="T30" s="286"/>
-      <c r="U30" s="276"/>
-      <c r="V30" s="278"/>
-      <c r="W30" s="287"/>
-      <c r="X30" s="288"/>
-      <c r="Y30" s="289"/>
-      <c r="Z30" s="290"/>
-      <c r="AA30" s="290"/>
-      <c r="AB30" s="291"/>
-      <c r="AC30" s="295"/>
-      <c r="AD30" s="296"/>
-      <c r="AE30" s="296"/>
-      <c r="AF30" s="296"/>
-      <c r="AG30" s="297"/>
-      <c r="AH30" s="276"/>
-      <c r="AI30" s="277"/>
-      <c r="AJ30" s="277"/>
-      <c r="AK30" s="277"/>
-      <c r="AL30" s="277"/>
-      <c r="AM30" s="277"/>
-      <c r="AN30" s="294"/>
-      <c r="AO30" s="272"/>
-      <c r="AP30" s="273"/>
-      <c r="AQ30" s="273"/>
-      <c r="AR30" s="273"/>
-      <c r="AS30" s="273"/>
-      <c r="AT30" s="273"/>
-      <c r="AU30" s="273"/>
-      <c r="AV30" s="273"/>
-      <c r="AW30" s="273"/>
-      <c r="AX30" s="273"/>
-      <c r="AY30" s="273"/>
-      <c r="AZ30" s="273"/>
-      <c r="BA30" s="273"/>
-      <c r="BB30" s="273"/>
-      <c r="BC30" s="273"/>
-      <c r="BD30" s="273"/>
-      <c r="BE30" s="273"/>
-      <c r="BF30" s="273"/>
-      <c r="BG30" s="273"/>
-      <c r="BH30" s="273"/>
-      <c r="BI30" s="273"/>
-      <c r="BJ30" s="273"/>
-      <c r="BK30" s="273"/>
-      <c r="BL30" s="274"/>
+      <c r="L30" s="288"/>
+      <c r="M30" s="279"/>
+      <c r="N30" s="280"/>
+      <c r="O30" s="280"/>
+      <c r="P30" s="289"/>
+      <c r="Q30" s="294"/>
+      <c r="R30" s="295"/>
+      <c r="S30" s="296"/>
+      <c r="T30" s="297"/>
+      <c r="U30" s="279"/>
+      <c r="V30" s="289"/>
+      <c r="W30" s="272"/>
+      <c r="X30" s="273"/>
+      <c r="Y30" s="274"/>
+      <c r="Z30" s="275"/>
+      <c r="AA30" s="275"/>
+      <c r="AB30" s="276"/>
+      <c r="AC30" s="285"/>
+      <c r="AD30" s="286"/>
+      <c r="AE30" s="286"/>
+      <c r="AF30" s="286"/>
+      <c r="AG30" s="287"/>
+      <c r="AH30" s="279"/>
+      <c r="AI30" s="280"/>
+      <c r="AJ30" s="280"/>
+      <c r="AK30" s="280"/>
+      <c r="AL30" s="280"/>
+      <c r="AM30" s="280"/>
+      <c r="AN30" s="281"/>
+      <c r="AO30" s="282"/>
+      <c r="AP30" s="283"/>
+      <c r="AQ30" s="283"/>
+      <c r="AR30" s="283"/>
+      <c r="AS30" s="283"/>
+      <c r="AT30" s="283"/>
+      <c r="AU30" s="283"/>
+      <c r="AV30" s="283"/>
+      <c r="AW30" s="283"/>
+      <c r="AX30" s="283"/>
+      <c r="AY30" s="283"/>
+      <c r="AZ30" s="283"/>
+      <c r="BA30" s="283"/>
+      <c r="BB30" s="283"/>
+      <c r="BC30" s="283"/>
+      <c r="BD30" s="283"/>
+      <c r="BE30" s="283"/>
+      <c r="BF30" s="283"/>
+      <c r="BG30" s="283"/>
+      <c r="BH30" s="283"/>
+      <c r="BI30" s="283"/>
+      <c r="BJ30" s="283"/>
+      <c r="BK30" s="283"/>
+      <c r="BL30" s="284"/>
     </row>
     <row r="31" spans="1:64" ht="13.5" customHeight="1">
       <c r="A31" s="83"/>
@@ -19673,67 +19674,62 @@
       <c r="I31" s="207"/>
       <c r="J31" s="207"/>
       <c r="K31" s="207"/>
-      <c r="L31" s="275"/>
-      <c r="M31" s="276"/>
-      <c r="N31" s="277"/>
-      <c r="O31" s="277"/>
-      <c r="P31" s="278"/>
-      <c r="Q31" s="279"/>
-      <c r="R31" s="280"/>
-      <c r="S31" s="281"/>
-      <c r="T31" s="282"/>
-      <c r="U31" s="276"/>
-      <c r="V31" s="278"/>
-      <c r="W31" s="287"/>
-      <c r="X31" s="288"/>
-      <c r="Y31" s="289"/>
-      <c r="Z31" s="290"/>
-      <c r="AA31" s="290"/>
-      <c r="AB31" s="291"/>
-      <c r="AC31" s="292"/>
-      <c r="AD31" s="293"/>
-      <c r="AE31" s="293"/>
-      <c r="AF31" s="293"/>
-      <c r="AG31" s="288"/>
-      <c r="AH31" s="276"/>
-      <c r="AI31" s="277"/>
-      <c r="AJ31" s="277"/>
-      <c r="AK31" s="277"/>
-      <c r="AL31" s="277"/>
-      <c r="AM31" s="277"/>
-      <c r="AN31" s="294"/>
-      <c r="AO31" s="272"/>
-      <c r="AP31" s="273"/>
-      <c r="AQ31" s="273"/>
-      <c r="AR31" s="273"/>
-      <c r="AS31" s="273"/>
-      <c r="AT31" s="273"/>
-      <c r="AU31" s="273"/>
-      <c r="AV31" s="273"/>
-      <c r="AW31" s="273"/>
-      <c r="AX31" s="273"/>
-      <c r="AY31" s="273"/>
-      <c r="AZ31" s="273"/>
-      <c r="BA31" s="273"/>
-      <c r="BB31" s="273"/>
-      <c r="BC31" s="273"/>
-      <c r="BD31" s="273"/>
-      <c r="BE31" s="273"/>
-      <c r="BF31" s="273"/>
-      <c r="BG31" s="273"/>
-      <c r="BH31" s="273"/>
-      <c r="BI31" s="273"/>
-      <c r="BJ31" s="273"/>
-      <c r="BK31" s="273"/>
-      <c r="BL31" s="274"/>
+      <c r="L31" s="288"/>
+      <c r="M31" s="279"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
+      <c r="P31" s="289"/>
+      <c r="Q31" s="290"/>
+      <c r="R31" s="291"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="293"/>
+      <c r="U31" s="279"/>
+      <c r="V31" s="289"/>
+      <c r="W31" s="272"/>
+      <c r="X31" s="273"/>
+      <c r="Y31" s="274"/>
+      <c r="Z31" s="275"/>
+      <c r="AA31" s="275"/>
+      <c r="AB31" s="276"/>
+      <c r="AC31" s="277"/>
+      <c r="AD31" s="278"/>
+      <c r="AE31" s="278"/>
+      <c r="AF31" s="278"/>
+      <c r="AG31" s="273"/>
+      <c r="AH31" s="279"/>
+      <c r="AI31" s="280"/>
+      <c r="AJ31" s="280"/>
+      <c r="AK31" s="280"/>
+      <c r="AL31" s="280"/>
+      <c r="AM31" s="280"/>
+      <c r="AN31" s="281"/>
+      <c r="AO31" s="282"/>
+      <c r="AP31" s="283"/>
+      <c r="AQ31" s="283"/>
+      <c r="AR31" s="283"/>
+      <c r="AS31" s="283"/>
+      <c r="AT31" s="283"/>
+      <c r="AU31" s="283"/>
+      <c r="AV31" s="283"/>
+      <c r="AW31" s="283"/>
+      <c r="AX31" s="283"/>
+      <c r="AY31" s="283"/>
+      <c r="AZ31" s="283"/>
+      <c r="BA31" s="283"/>
+      <c r="BB31" s="283"/>
+      <c r="BC31" s="283"/>
+      <c r="BD31" s="283"/>
+      <c r="BE31" s="283"/>
+      <c r="BF31" s="283"/>
+      <c r="BG31" s="283"/>
+      <c r="BH31" s="283"/>
+      <c r="BI31" s="283"/>
+      <c r="BJ31" s="283"/>
+      <c r="BK31" s="283"/>
+      <c r="BL31" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="226">
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A6:AB6"/>
-    <mergeCell ref="AC6:AN6"/>
-    <mergeCell ref="AO6:BL7"/>
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -19743,24 +19739,6 @@
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
     <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="AO8:BL8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
@@ -19777,6 +19755,35 @@
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="A6:AB6"/>
+    <mergeCell ref="AC6:AN6"/>
+    <mergeCell ref="AO6:BL7"/>
+    <mergeCell ref="AO8:BL8"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="AC10:AG10"/>
     <mergeCell ref="AH10:AN10"/>
@@ -19796,18 +19803,6 @@
     <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="AC11:AG11"/>
     <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
     <mergeCell ref="Y12:AB12"/>
     <mergeCell ref="AC12:AG12"/>
     <mergeCell ref="AH12:AN12"/>
@@ -19818,6 +19813,12 @@
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="AC15:AG15"/>
@@ -19932,6 +19933,9 @@
     <mergeCell ref="AC28:AG28"/>
     <mergeCell ref="AH28:AN28"/>
     <mergeCell ref="AO28:BL28"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="Q29:R29"/>
     <mergeCell ref="B31:L31"/>
     <mergeCell ref="M31:P31"/>
     <mergeCell ref="Q31:R31"/>
@@ -19952,9 +19956,6 @@
     <mergeCell ref="AH30:AN30"/>
     <mergeCell ref="AO30:BL30"/>
     <mergeCell ref="W30:X30"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="Q29:R29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -20308,35 +20309,35 @@
       <c r="BN1" s="107"/>
     </row>
     <row r="2" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A2" s="382" t="s">
+      <c r="A2" s="385" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
-      <c r="H2" s="383"/>
-      <c r="I2" s="383"/>
-      <c r="J2" s="383"/>
-      <c r="K2" s="383"/>
-      <c r="L2" s="383"/>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383"/>
-      <c r="O2" s="383"/>
-      <c r="P2" s="383"/>
-      <c r="Q2" s="383"/>
-      <c r="R2" s="383"/>
-      <c r="S2" s="383"/>
-      <c r="T2" s="383"/>
-      <c r="U2" s="383"/>
-      <c r="V2" s="383"/>
-      <c r="W2" s="383"/>
-      <c r="X2" s="383"/>
-      <c r="Y2" s="383"/>
-      <c r="Z2" s="383"/>
-      <c r="AA2" s="383"/>
+      <c r="B2" s="386"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
+      <c r="F2" s="386"/>
+      <c r="G2" s="386"/>
+      <c r="H2" s="386"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="386"/>
+      <c r="K2" s="386"/>
+      <c r="L2" s="386"/>
+      <c r="M2" s="386"/>
+      <c r="N2" s="386"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
+      <c r="Q2" s="386"/>
+      <c r="R2" s="386"/>
+      <c r="S2" s="386"/>
+      <c r="T2" s="386"/>
+      <c r="U2" s="386"/>
+      <c r="V2" s="386"/>
+      <c r="W2" s="386"/>
+      <c r="X2" s="386"/>
+      <c r="Y2" s="386"/>
+      <c r="Z2" s="386"/>
+      <c r="AA2" s="386"/>
       <c r="AP2" s="109"/>
       <c r="AQ2" s="109"/>
       <c r="AR2" s="109"/>
@@ -20364,33 +20365,33 @@
       <c r="BN2" s="111"/>
     </row>
     <row r="3" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A3" s="384"/>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="385"/>
-      <c r="F3" s="385"/>
-      <c r="G3" s="385"/>
-      <c r="H3" s="385"/>
-      <c r="I3" s="385"/>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385"/>
-      <c r="N3" s="385"/>
-      <c r="O3" s="385"/>
-      <c r="P3" s="385"/>
-      <c r="Q3" s="385"/>
-      <c r="R3" s="385"/>
-      <c r="S3" s="385"/>
-      <c r="T3" s="385"/>
-      <c r="U3" s="385"/>
-      <c r="V3" s="385"/>
-      <c r="W3" s="385"/>
-      <c r="X3" s="385"/>
-      <c r="Y3" s="385"/>
-      <c r="Z3" s="385"/>
-      <c r="AA3" s="385"/>
+      <c r="A3" s="387"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="388"/>
+      <c r="E3" s="388"/>
+      <c r="F3" s="388"/>
+      <c r="G3" s="388"/>
+      <c r="H3" s="388"/>
+      <c r="I3" s="388"/>
+      <c r="J3" s="388"/>
+      <c r="K3" s="388"/>
+      <c r="L3" s="388"/>
+      <c r="M3" s="388"/>
+      <c r="N3" s="388"/>
+      <c r="O3" s="388"/>
+      <c r="P3" s="388"/>
+      <c r="Q3" s="388"/>
+      <c r="R3" s="388"/>
+      <c r="S3" s="388"/>
+      <c r="T3" s="388"/>
+      <c r="U3" s="388"/>
+      <c r="V3" s="388"/>
+      <c r="W3" s="388"/>
+      <c r="X3" s="388"/>
+      <c r="Y3" s="388"/>
+      <c r="Z3" s="388"/>
+      <c r="AA3" s="388"/>
       <c r="AB3" s="112"/>
       <c r="AC3" s="112"/>
       <c r="AD3" s="112"/>
@@ -20432,170 +20433,170 @@
       <c r="BN3" s="114"/>
     </row>
     <row r="4" spans="1:66" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="360" t="s">
+      <c r="A4" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="361"/>
-      <c r="C4" s="361"/>
-      <c r="D4" s="361"/>
-      <c r="E4" s="361"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="363" t="str">
+      <c r="B4" s="342"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="344" t="str">
         <f>[7]画面レイアウト!G4</f>
         <v>契約情報管理</v>
       </c>
-      <c r="H4" s="364"/>
-      <c r="I4" s="364"/>
-      <c r="J4" s="364"/>
-      <c r="K4" s="364"/>
-      <c r="L4" s="364"/>
-      <c r="M4" s="364"/>
-      <c r="N4" s="364"/>
-      <c r="O4" s="365"/>
-      <c r="P4" s="366" t="s">
+      <c r="H4" s="345"/>
+      <c r="I4" s="345"/>
+      <c r="J4" s="345"/>
+      <c r="K4" s="345"/>
+      <c r="L4" s="345"/>
+      <c r="M4" s="345"/>
+      <c r="N4" s="345"/>
+      <c r="O4" s="346"/>
+      <c r="P4" s="347" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="367"/>
-      <c r="R4" s="367"/>
-      <c r="S4" s="367"/>
-      <c r="T4" s="367"/>
-      <c r="U4" s="368"/>
-      <c r="V4" s="369" t="str">
+      <c r="Q4" s="348"/>
+      <c r="R4" s="348"/>
+      <c r="S4" s="348"/>
+      <c r="T4" s="348"/>
+      <c r="U4" s="349"/>
+      <c r="V4" s="350" t="str">
         <f>[7]画面レイアウト!U4</f>
         <v>契約情報管理</v>
       </c>
-      <c r="W4" s="370"/>
-      <c r="X4" s="370"/>
-      <c r="Y4" s="370"/>
-      <c r="Z4" s="370"/>
-      <c r="AA4" s="370"/>
-      <c r="AB4" s="370"/>
-      <c r="AC4" s="370"/>
-      <c r="AD4" s="370"/>
-      <c r="AE4" s="370"/>
-      <c r="AF4" s="370"/>
-      <c r="AG4" s="370"/>
-      <c r="AH4" s="370"/>
-      <c r="AI4" s="370"/>
-      <c r="AJ4" s="370"/>
-      <c r="AK4" s="370"/>
-      <c r="AL4" s="370"/>
-      <c r="AM4" s="370"/>
-      <c r="AN4" s="370"/>
-      <c r="AO4" s="370"/>
-      <c r="AP4" s="370"/>
-      <c r="AQ4" s="370"/>
-      <c r="AR4" s="370"/>
-      <c r="AS4" s="370"/>
-      <c r="AT4" s="370"/>
-      <c r="AU4" s="370"/>
-      <c r="AV4" s="371"/>
-      <c r="AW4" s="372" t="s">
+      <c r="W4" s="351"/>
+      <c r="X4" s="351"/>
+      <c r="Y4" s="351"/>
+      <c r="Z4" s="351"/>
+      <c r="AA4" s="351"/>
+      <c r="AB4" s="351"/>
+      <c r="AC4" s="351"/>
+      <c r="AD4" s="351"/>
+      <c r="AE4" s="351"/>
+      <c r="AF4" s="351"/>
+      <c r="AG4" s="351"/>
+      <c r="AH4" s="351"/>
+      <c r="AI4" s="351"/>
+      <c r="AJ4" s="351"/>
+      <c r="AK4" s="351"/>
+      <c r="AL4" s="351"/>
+      <c r="AM4" s="351"/>
+      <c r="AN4" s="351"/>
+      <c r="AO4" s="351"/>
+      <c r="AP4" s="351"/>
+      <c r="AQ4" s="351"/>
+      <c r="AR4" s="351"/>
+      <c r="AS4" s="351"/>
+      <c r="AT4" s="351"/>
+      <c r="AU4" s="351"/>
+      <c r="AV4" s="352"/>
+      <c r="AW4" s="353" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="373"/>
-      <c r="AY4" s="374"/>
-      <c r="AZ4" s="231">
+      <c r="AX4" s="354"/>
+      <c r="AY4" s="355"/>
+      <c r="AZ4" s="226">
         <f>[7]画面レイアウト!AZ4</f>
         <v>44673</v>
       </c>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="232"/>
-      <c r="BC4" s="232"/>
-      <c r="BD4" s="232"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="372" t="s">
+      <c r="BA4" s="227"/>
+      <c r="BB4" s="227"/>
+      <c r="BC4" s="227"/>
+      <c r="BD4" s="227"/>
+      <c r="BE4" s="227"/>
+      <c r="BF4" s="353" t="s">
         <v>6</v>
       </c>
-      <c r="BG4" s="373"/>
-      <c r="BH4" s="374"/>
-      <c r="BI4" s="375" t="str">
+      <c r="BG4" s="354"/>
+      <c r="BH4" s="355"/>
+      <c r="BI4" s="356" t="str">
         <f>[7]画面レイアウト!BI4</f>
         <v>テー</v>
       </c>
-      <c r="BJ4" s="232"/>
-      <c r="BK4" s="232"/>
-      <c r="BL4" s="232"/>
-      <c r="BM4" s="232"/>
-      <c r="BN4" s="236"/>
+      <c r="BJ4" s="227"/>
+      <c r="BK4" s="227"/>
+      <c r="BL4" s="227"/>
+      <c r="BM4" s="227"/>
+      <c r="BN4" s="231"/>
     </row>
     <row r="5" spans="1:66" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="240"/>
-      <c r="O5" s="241"/>
-      <c r="P5" s="237" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="238"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="242"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="210"/>
-      <c r="AQ5" s="210"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="210"/>
-      <c r="AU5" s="210"/>
-      <c r="AV5" s="211"/>
-      <c r="AW5" s="243" t="s">
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="234"/>
+      <c r="V5" s="237"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
+      <c r="AB5" s="238"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="238"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="238"/>
+      <c r="AI5" s="238"/>
+      <c r="AJ5" s="238"/>
+      <c r="AK5" s="238"/>
+      <c r="AL5" s="238"/>
+      <c r="AM5" s="238"/>
+      <c r="AN5" s="238"/>
+      <c r="AO5" s="238"/>
+      <c r="AP5" s="238"/>
+      <c r="AQ5" s="238"/>
+      <c r="AR5" s="238"/>
+      <c r="AS5" s="238"/>
+      <c r="AT5" s="238"/>
+      <c r="AU5" s="238"/>
+      <c r="AV5" s="239"/>
+      <c r="AW5" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="244"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="209"/>
-      <c r="BE5" s="209"/>
-      <c r="BF5" s="243" t="s">
+      <c r="AX5" s="241"/>
+      <c r="AY5" s="242"/>
+      <c r="AZ5" s="241"/>
+      <c r="BA5" s="241"/>
+      <c r="BB5" s="241"/>
+      <c r="BC5" s="241"/>
+      <c r="BD5" s="241"/>
+      <c r="BE5" s="241"/>
+      <c r="BF5" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="244"/>
-      <c r="BI5" s="242"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
-      <c r="BM5" s="210"/>
-      <c r="BN5" s="211"/>
+      <c r="BG5" s="241"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="237"/>
+      <c r="BJ5" s="238"/>
+      <c r="BK5" s="238"/>
+      <c r="BL5" s="238"/>
+      <c r="BM5" s="238"/>
+      <c r="BN5" s="239"/>
     </row>
     <row r="6" spans="1:66" s="122" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A6" s="380" t="s">
@@ -20700,7 +20701,7 @@
       <c r="T7" s="120"/>
       <c r="U7" s="120"/>
       <c r="V7" s="116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W7" s="121"/>
       <c r="X7" s="120"/>
@@ -20719,7 +20720,7 @@
       <c r="AK7" s="120"/>
       <c r="AL7" s="147"/>
       <c r="AM7" s="376" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN7" s="377"/>
       <c r="AO7" s="377"/>
@@ -20776,7 +20777,7 @@
       <c r="T8" s="120"/>
       <c r="U8" s="120"/>
       <c r="V8" s="116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W8" s="120"/>
       <c r="X8" s="120"/>
@@ -20852,7 +20853,7 @@
       <c r="T9" s="120"/>
       <c r="U9" s="120"/>
       <c r="V9" s="379" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W9" s="377"/>
       <c r="X9" s="377"/>
@@ -20871,7 +20872,7 @@
       <c r="AK9" s="377"/>
       <c r="AL9" s="378"/>
       <c r="AM9" s="376" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AN9" s="377"/>
       <c r="AO9" s="377"/>
@@ -20928,7 +20929,7 @@
       <c r="T10" s="120"/>
       <c r="U10" s="120"/>
       <c r="V10" s="116" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="W10" s="120"/>
       <c r="X10" s="120"/>
@@ -20947,7 +20948,7 @@
       <c r="AK10" s="120"/>
       <c r="AL10" s="147"/>
       <c r="AM10" s="376" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AN10" s="377"/>
       <c r="AO10" s="377"/>
@@ -20980,29 +20981,29 @@
     <row r="11" spans="1:66" s="122" customFormat="1" ht="20.5" customHeight="1">
       <c r="A11" s="123"/>
       <c r="B11" s="125"/>
-      <c r="C11" s="387" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="388"/>
-      <c r="E11" s="388"/>
-      <c r="F11" s="388"/>
-      <c r="G11" s="388"/>
-      <c r="H11" s="388"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="388"/>
-      <c r="L11" s="388"/>
-      <c r="M11" s="388"/>
-      <c r="N11" s="388"/>
-      <c r="O11" s="388"/>
-      <c r="P11" s="388"/>
-      <c r="Q11" s="388"/>
-      <c r="R11" s="388"/>
-      <c r="S11" s="388"/>
-      <c r="T11" s="388"/>
-      <c r="U11" s="389"/>
+      <c r="C11" s="382" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="383"/>
+      <c r="E11" s="383"/>
+      <c r="F11" s="383"/>
+      <c r="G11" s="383"/>
+      <c r="H11" s="383"/>
+      <c r="I11" s="383"/>
+      <c r="J11" s="383"/>
+      <c r="K11" s="383"/>
+      <c r="L11" s="383"/>
+      <c r="M11" s="383"/>
+      <c r="N11" s="383"/>
+      <c r="O11" s="383"/>
+      <c r="P11" s="383"/>
+      <c r="Q11" s="383"/>
+      <c r="R11" s="383"/>
+      <c r="S11" s="383"/>
+      <c r="T11" s="383"/>
+      <c r="U11" s="384"/>
       <c r="V11" s="379" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W11" s="377"/>
       <c r="X11" s="377"/>
@@ -21021,7 +21022,7 @@
       <c r="AK11" s="377"/>
       <c r="AL11" s="378"/>
       <c r="AM11" s="376" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN11" s="377"/>
       <c r="AO11" s="377"/>
@@ -21057,7 +21058,7 @@
       </c>
       <c r="B12" s="125"/>
       <c r="C12" s="124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D12" s="118"/>
       <c r="E12" s="118"/>
@@ -21078,7 +21079,7 @@
       <c r="T12" s="120"/>
       <c r="U12" s="120"/>
       <c r="V12" s="116" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W12" s="126"/>
       <c r="X12" s="126"/>
@@ -21097,7 +21098,7 @@
       <c r="AK12" s="120"/>
       <c r="AL12" s="147"/>
       <c r="AM12" s="376" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AN12" s="377"/>
       <c r="AO12" s="377"/>
@@ -21131,7 +21132,7 @@
       <c r="A13" s="123"/>
       <c r="B13" s="125"/>
       <c r="C13" s="124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" s="118"/>
       <c r="E13" s="118"/>
@@ -21152,7 +21153,7 @@
       <c r="T13" s="120"/>
       <c r="U13" s="120"/>
       <c r="V13" s="379" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W13" s="377"/>
       <c r="X13" s="377"/>
@@ -21171,7 +21172,7 @@
       <c r="AK13" s="377"/>
       <c r="AL13" s="378"/>
       <c r="AM13" s="376" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AN13" s="377"/>
       <c r="AO13" s="377"/>
@@ -21228,7 +21229,7 @@
       <c r="T14" s="120"/>
       <c r="U14" s="120"/>
       <c r="V14" s="116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W14" s="126"/>
       <c r="X14" s="126"/>
@@ -21247,7 +21248,7 @@
       <c r="AK14" s="120"/>
       <c r="AL14" s="147"/>
       <c r="AM14" s="376" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN14" s="377"/>
       <c r="AO14" s="377"/>
@@ -21281,7 +21282,7 @@
       <c r="A15" s="123"/>
       <c r="B15" s="125"/>
       <c r="C15" s="124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="118"/>
@@ -21302,7 +21303,7 @@
       <c r="T15" s="120"/>
       <c r="U15" s="120"/>
       <c r="V15" s="379" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W15" s="377"/>
       <c r="X15" s="377"/>
@@ -21321,7 +21322,7 @@
       <c r="AK15" s="377"/>
       <c r="AL15" s="378"/>
       <c r="AM15" s="376" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AN15" s="377"/>
       <c r="AO15" s="377"/>
@@ -21378,7 +21379,7 @@
       <c r="T16" s="120"/>
       <c r="U16" s="120"/>
       <c r="V16" s="116" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W16" s="126"/>
       <c r="X16" s="126"/>
@@ -21397,7 +21398,7 @@
       <c r="AK16" s="120"/>
       <c r="AL16" s="147"/>
       <c r="AM16" s="376" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AN16" s="377"/>
       <c r="AO16" s="377"/>
@@ -21431,7 +21432,7 @@
       <c r="A17" s="123"/>
       <c r="B17" s="125"/>
       <c r="C17" s="124" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="118"/>
@@ -21452,7 +21453,7 @@
       <c r="T17" s="120"/>
       <c r="U17" s="120"/>
       <c r="V17" s="379" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W17" s="377"/>
       <c r="X17" s="377"/>
@@ -21471,7 +21472,7 @@
       <c r="AK17" s="377"/>
       <c r="AL17" s="378"/>
       <c r="AM17" s="376" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AN17" s="377"/>
       <c r="AO17" s="377"/>
@@ -21528,7 +21529,7 @@
       <c r="T18" s="120"/>
       <c r="U18" s="120"/>
       <c r="V18" s="116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W18" s="126"/>
       <c r="X18" s="126"/>
@@ -23163,13 +23164,6 @@
     <mergeCell ref="BI4:BN4"/>
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="AM16:BN16"/>
-    <mergeCell ref="AM18:BN18"/>
-    <mergeCell ref="AM9:BN9"/>
-    <mergeCell ref="V9:AL9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C11:U11"/>
-    <mergeCell ref="V11:AL11"/>
     <mergeCell ref="V13:AL13"/>
     <mergeCell ref="V15:AL15"/>
     <mergeCell ref="V17:AL17"/>
@@ -23177,11 +23171,18 @@
     <mergeCell ref="AM13:BN13"/>
     <mergeCell ref="AM15:BN15"/>
     <mergeCell ref="AM17:BN17"/>
+    <mergeCell ref="AM9:BN9"/>
+    <mergeCell ref="V9:AL9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C11:U11"/>
+    <mergeCell ref="V11:AL11"/>
     <mergeCell ref="AM7:BN7"/>
     <mergeCell ref="AM8:BN8"/>
     <mergeCell ref="AM10:BN10"/>
     <mergeCell ref="AM12:BN12"/>
     <mergeCell ref="AM14:BN14"/>
+    <mergeCell ref="AM16:BN16"/>
+    <mergeCell ref="AM18:BN18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -23195,7 +23196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C58939-9767-4B24-B2C0-6CB62AAEB76E}">
   <dimension ref="A1:BM132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A95" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -23532,34 +23533,34 @@
       <c r="BM1" s="38"/>
     </row>
     <row r="2" spans="1:65" ht="13.5" customHeight="1">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="212" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="218"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="218"/>
-      <c r="O2" s="218"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
-      <c r="V2" s="218"/>
-      <c r="W2" s="218"/>
-      <c r="X2" s="218"/>
-      <c r="Y2" s="218"/>
-      <c r="Z2" s="218"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="213"/>
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="213"/>
+      <c r="N2" s="213"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="213"/>
+      <c r="Q2" s="213"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="213"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -23585,32 +23586,32 @@
       <c r="BM2" s="38"/>
     </row>
     <row r="3" spans="1:65" ht="13.5" customHeight="1">
-      <c r="A3" s="217"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="213"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="213"/>
+      <c r="F3" s="213"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="I3" s="213"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="213"/>
+      <c r="L3" s="213"/>
+      <c r="M3" s="213"/>
+      <c r="N3" s="213"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="213"/>
+      <c r="Q3" s="213"/>
+      <c r="R3" s="213"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="213"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -23636,163 +23637,163 @@
       <c r="BM3" s="39"/>
     </row>
     <row r="4" spans="1:65" ht="13.5" customHeight="1">
-      <c r="A4" s="219" t="s">
+      <c r="A4" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="220"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="220"/>
-      <c r="E4" s="220"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="386" t="s">
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="389" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
-      <c r="K4" s="223"/>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="225" t="s">
+      <c r="H4" s="218"/>
+      <c r="I4" s="218"/>
+      <c r="J4" s="218"/>
+      <c r="K4" s="218"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="218"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="227"/>
-      <c r="U4" s="228" t="s">
+      <c r="P4" s="221"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="221"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="229"/>
-      <c r="W4" s="229"/>
-      <c r="X4" s="229"/>
-      <c r="Y4" s="229"/>
-      <c r="Z4" s="229"/>
-      <c r="AA4" s="229"/>
-      <c r="AB4" s="229"/>
-      <c r="AC4" s="229"/>
-      <c r="AD4" s="229"/>
-      <c r="AE4" s="229"/>
-      <c r="AF4" s="229"/>
-      <c r="AG4" s="229"/>
-      <c r="AH4" s="229"/>
-      <c r="AI4" s="229"/>
-      <c r="AJ4" s="229"/>
-      <c r="AK4" s="229"/>
-      <c r="AL4" s="229"/>
-      <c r="AM4" s="229"/>
-      <c r="AN4" s="229"/>
-      <c r="AO4" s="229"/>
-      <c r="AP4" s="229"/>
-      <c r="AQ4" s="229"/>
-      <c r="AR4" s="229"/>
-      <c r="AS4" s="229"/>
-      <c r="AT4" s="229"/>
-      <c r="AU4" s="229"/>
-      <c r="AV4" s="230"/>
-      <c r="AW4" s="233" t="s">
+      <c r="V4" s="224"/>
+      <c r="W4" s="224"/>
+      <c r="X4" s="224"/>
+      <c r="Y4" s="224"/>
+      <c r="Z4" s="224"/>
+      <c r="AA4" s="224"/>
+      <c r="AB4" s="224"/>
+      <c r="AC4" s="224"/>
+      <c r="AD4" s="224"/>
+      <c r="AE4" s="224"/>
+      <c r="AF4" s="224"/>
+      <c r="AG4" s="224"/>
+      <c r="AH4" s="224"/>
+      <c r="AI4" s="224"/>
+      <c r="AJ4" s="224"/>
+      <c r="AK4" s="224"/>
+      <c r="AL4" s="224"/>
+      <c r="AM4" s="224"/>
+      <c r="AN4" s="224"/>
+      <c r="AO4" s="224"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="224"/>
+      <c r="AR4" s="224"/>
+      <c r="AS4" s="224"/>
+      <c r="AT4" s="224"/>
+      <c r="AU4" s="224"/>
+      <c r="AV4" s="225"/>
+      <c r="AW4" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="235"/>
-      <c r="AZ4" s="231">
+      <c r="AX4" s="229"/>
+      <c r="AY4" s="230"/>
+      <c r="AZ4" s="226">
         <v>44676</v>
       </c>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="232"/>
-      <c r="BC4" s="232"/>
-      <c r="BD4" s="232"/>
-      <c r="BE4" s="232"/>
-      <c r="BF4" s="233" t="s">
+      <c r="BA4" s="227"/>
+      <c r="BB4" s="227"/>
+      <c r="BC4" s="227"/>
+      <c r="BD4" s="227"/>
+      <c r="BE4" s="227"/>
+      <c r="BF4" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="BG4" s="234"/>
-      <c r="BH4" s="235"/>
-      <c r="BI4" s="231" t="s">
+      <c r="BG4" s="229"/>
+      <c r="BH4" s="230"/>
+      <c r="BI4" s="226" t="s">
         <v>19</v>
       </c>
-      <c r="BJ4" s="232"/>
-      <c r="BK4" s="232"/>
-      <c r="BL4" s="232"/>
+      <c r="BJ4" s="227"/>
+      <c r="BK4" s="227"/>
+      <c r="BL4" s="227"/>
       <c r="BM4" s="40"/>
     </row>
     <row r="5" spans="1:65" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="232" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="240" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="240"/>
-      <c r="J5" s="240"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="240"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="237" t="s">
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
+        <v>272</v>
+      </c>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="238"/>
-      <c r="Q5" s="238"/>
-      <c r="R5" s="238"/>
-      <c r="S5" s="238"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="242"/>
-      <c r="V5" s="210"/>
-      <c r="W5" s="210"/>
-      <c r="X5" s="210"/>
-      <c r="Y5" s="210"/>
-      <c r="Z5" s="210"/>
-      <c r="AA5" s="210"/>
-      <c r="AB5" s="210"/>
-      <c r="AC5" s="210"/>
-      <c r="AD5" s="210"/>
-      <c r="AE5" s="210"/>
-      <c r="AF5" s="210"/>
-      <c r="AG5" s="210"/>
-      <c r="AH5" s="210"/>
-      <c r="AI5" s="210"/>
-      <c r="AJ5" s="210"/>
-      <c r="AK5" s="210"/>
-      <c r="AL5" s="210"/>
-      <c r="AM5" s="210"/>
-      <c r="AN5" s="210"/>
-      <c r="AO5" s="210"/>
-      <c r="AP5" s="210"/>
-      <c r="AQ5" s="210"/>
-      <c r="AR5" s="210"/>
-      <c r="AS5" s="210"/>
-      <c r="AT5" s="210"/>
-      <c r="AU5" s="210"/>
-      <c r="AV5" s="211"/>
-      <c r="AW5" s="243" t="s">
+      <c r="P5" s="233"/>
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="234"/>
+      <c r="U5" s="237"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
+      <c r="X5" s="238"/>
+      <c r="Y5" s="238"/>
+      <c r="Z5" s="238"/>
+      <c r="AA5" s="238"/>
+      <c r="AB5" s="238"/>
+      <c r="AC5" s="238"/>
+      <c r="AD5" s="238"/>
+      <c r="AE5" s="238"/>
+      <c r="AF5" s="238"/>
+      <c r="AG5" s="238"/>
+      <c r="AH5" s="238"/>
+      <c r="AI5" s="238"/>
+      <c r="AJ5" s="238"/>
+      <c r="AK5" s="238"/>
+      <c r="AL5" s="238"/>
+      <c r="AM5" s="238"/>
+      <c r="AN5" s="238"/>
+      <c r="AO5" s="238"/>
+      <c r="AP5" s="238"/>
+      <c r="AQ5" s="238"/>
+      <c r="AR5" s="238"/>
+      <c r="AS5" s="238"/>
+      <c r="AT5" s="238"/>
+      <c r="AU5" s="238"/>
+      <c r="AV5" s="239"/>
+      <c r="AW5" s="240" t="s">
         <v>25</v>
       </c>
-      <c r="AX5" s="209"/>
-      <c r="AY5" s="244"/>
-      <c r="AZ5" s="209"/>
-      <c r="BA5" s="209"/>
-      <c r="BB5" s="209"/>
-      <c r="BC5" s="209"/>
-      <c r="BD5" s="209"/>
-      <c r="BE5" s="209"/>
-      <c r="BF5" s="243" t="s">
+      <c r="AX5" s="241"/>
+      <c r="AY5" s="242"/>
+      <c r="AZ5" s="241"/>
+      <c r="BA5" s="241"/>
+      <c r="BB5" s="241"/>
+      <c r="BC5" s="241"/>
+      <c r="BD5" s="241"/>
+      <c r="BE5" s="241"/>
+      <c r="BF5" s="240" t="s">
         <v>26</v>
       </c>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="244"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="210"/>
-      <c r="BK5" s="210"/>
-      <c r="BL5" s="210"/>
+      <c r="BG5" s="241"/>
+      <c r="BH5" s="242"/>
+      <c r="BI5" s="241"/>
+      <c r="BJ5" s="238"/>
+      <c r="BK5" s="238"/>
+      <c r="BL5" s="238"/>
       <c r="BM5" s="41"/>
     </row>
     <row r="6" spans="1:65" ht="13.5" customHeight="1" thickTop="1">
@@ -23869,7 +23870,7 @@
       </c>
       <c r="C7" s="132"/>
       <c r="D7" s="133" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
@@ -24081,7 +24082,7 @@
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
@@ -24359,7 +24360,7 @@
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -24566,7 +24567,7 @@
       </c>
       <c r="H17" s="50"/>
       <c r="K17" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="50"/>
@@ -24769,7 +24770,7 @@
       <c r="H20" s="50"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
@@ -25177,7 +25178,7 @@
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="50"/>
       <c r="I26" s="50"/>
@@ -25384,7 +25385,7 @@
       </c>
       <c r="H29" s="50"/>
       <c r="K29" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L29" s="50"/>
       <c r="M29" s="50"/>
@@ -25591,7 +25592,7 @@
       </c>
       <c r="M32" s="50"/>
       <c r="N32" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O32" s="50"/>
       <c r="P32" s="50"/>
@@ -25731,7 +25732,7 @@
       </c>
       <c r="M34" s="50"/>
       <c r="N34" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O34" s="50"/>
       <c r="P34" s="50"/>
@@ -25800,7 +25801,7 @@
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O35" s="50"/>
       <c r="P35" s="50"/>
@@ -25871,7 +25872,7 @@
       </c>
       <c r="M36" s="50"/>
       <c r="N36" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O36" s="50"/>
       <c r="P36" s="50"/>
@@ -26140,7 +26141,7 @@
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H40" s="50"/>
       <c r="I40" s="50"/>
@@ -26282,7 +26283,7 @@
       </c>
       <c r="H42" s="50"/>
       <c r="K42" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
@@ -26428,7 +26429,7 @@
       </c>
       <c r="N44" s="50"/>
       <c r="O44" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P44" s="50"/>
       <c r="Q44" s="50"/>
@@ -26497,7 +26498,7 @@
       <c r="M45" s="50"/>
       <c r="N45" s="50"/>
       <c r="O45" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P45" s="50"/>
       <c r="Q45" s="50"/>
@@ -26567,7 +26568,7 @@
         <v>145</v>
       </c>
       <c r="O46" s="50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P46" s="50"/>
       <c r="Q46" s="50"/>
@@ -26836,7 +26837,7 @@
       <c r="F50" s="50"/>
       <c r="G50" s="50"/>
       <c r="H50" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I50" s="50"/>
       <c r="J50" s="50"/>
@@ -26980,7 +26981,7 @@
       <c r="H52" s="50"/>
       <c r="I52" s="50"/>
       <c r="J52" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
@@ -27122,7 +27123,7 @@
       <c r="H54" s="50"/>
       <c r="I54" s="50"/>
       <c r="J54" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
@@ -27264,7 +27265,7 @@
       <c r="J56" s="50"/>
       <c r="K56" s="50"/>
       <c r="L56" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M56" s="50"/>
       <c r="N56" s="50"/>
@@ -27333,7 +27334,7 @@
       <c r="J57" s="50"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M57" s="50"/>
       <c r="N57" s="50"/>
@@ -27463,7 +27464,7 @@
       </c>
       <c r="C59" s="136"/>
       <c r="D59" s="135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" s="135"/>
       <c r="F59" s="135"/>
@@ -27675,7 +27676,7 @@
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G62" s="50"/>
       <c r="H62" s="50"/>
@@ -27953,7 +27954,7 @@
       <c r="E66" s="50"/>
       <c r="F66" s="50"/>
       <c r="G66" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H66" s="50"/>
       <c r="I66" s="50"/>
@@ -28093,7 +28094,7 @@
       </c>
       <c r="H68" s="50"/>
       <c r="K68" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L68" s="50"/>
       <c r="M68" s="50"/>
@@ -28160,7 +28161,7 @@
       </c>
       <c r="H69" s="50"/>
       <c r="K69" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L69" s="50"/>
       <c r="M69" s="50"/>
@@ -28366,7 +28367,7 @@
         <v>152</v>
       </c>
       <c r="M72" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N72" s="50"/>
       <c r="O72" s="50"/>
@@ -28423,12 +28424,12 @@
     </row>
     <row r="73" spans="1:65" ht="13.5" customHeight="1">
       <c r="M73" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:65" ht="13.5" customHeight="1">
       <c r="M74" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:65" ht="13.5" customHeight="1">
@@ -28436,7 +28437,7 @@
         <v>153</v>
       </c>
       <c r="M76" s="138" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:65" ht="13.5" customHeight="1">
@@ -28450,7 +28451,7 @@
         <v>155</v>
       </c>
       <c r="E79" s="135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F79" s="135"/>
       <c r="G79" s="135"/>
@@ -28658,7 +28659,7 @@
       <c r="E82" s="50"/>
       <c r="F82" s="50"/>
       <c r="G82" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H82" s="50"/>
       <c r="I82" s="50"/>
@@ -28798,7 +28799,7 @@
       </c>
       <c r="H84" s="50"/>
       <c r="K84" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L84" s="50"/>
       <c r="M84" s="50"/>
@@ -28865,7 +28866,7 @@
       </c>
       <c r="H85" s="50"/>
       <c r="K85" s="50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L85" s="50"/>
       <c r="M85" s="50"/>
@@ -29211,7 +29212,7 @@
       </c>
       <c r="M90" s="50"/>
       <c r="N90" s="50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O90" s="50"/>
       <c r="P90" s="50"/>
@@ -29358,7 +29359,7 @@
       <c r="Q92" s="50"/>
       <c r="R92" s="50"/>
       <c r="S92" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T92" s="50"/>
       <c r="U92" s="50"/>
@@ -29622,7 +29623,7 @@
       <c r="E96" s="50"/>
       <c r="F96" s="50"/>
       <c r="G96" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H96" s="50"/>
       <c r="I96" s="50"/>
@@ -29764,7 +29765,7 @@
       </c>
       <c r="H98" s="50"/>
       <c r="K98" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L98" s="50"/>
       <c r="M98" s="50"/>
@@ -29979,7 +29980,7 @@
       <c r="M101" s="50"/>
       <c r="N101" s="50"/>
       <c r="O101" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P101" s="50"/>
       <c r="Q101" s="50"/>
@@ -30119,7 +30120,7 @@
       <c r="M103" s="50"/>
       <c r="N103" s="50"/>
       <c r="O103" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P103" s="50"/>
       <c r="Q103" s="50"/>
@@ -30389,7 +30390,7 @@
       <c r="F107" s="50"/>
       <c r="G107" s="50"/>
       <c r="H107" s="50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I107" s="50"/>
       <c r="J107" s="50"/>
@@ -30458,7 +30459,7 @@
       <c r="F108" s="50"/>
       <c r="G108" s="50"/>
       <c r="H108" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I108" s="50"/>
       <c r="J108" s="50"/>
@@ -30602,7 +30603,7 @@
       <c r="H110" s="50"/>
       <c r="I110" s="50"/>
       <c r="J110" s="50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K110" s="50"/>
       <c r="L110" s="50"/>
@@ -30673,7 +30674,7 @@
       <c r="H111" s="50"/>
       <c r="I111" s="50"/>
       <c r="J111" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K111" s="50"/>
       <c r="L111" s="50"/>
@@ -30886,7 +30887,7 @@
       <c r="J114" s="50"/>
       <c r="K114" s="50"/>
       <c r="L114" s="50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M114" s="50"/>
       <c r="N114" s="50"/>
@@ -30955,7 +30956,7 @@
       <c r="J115" s="50"/>
       <c r="K115" s="50"/>
       <c r="L115" s="50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M115" s="50"/>
       <c r="N115" s="50"/>
@@ -31024,7 +31025,7 @@
       <c r="J116" s="50"/>
       <c r="K116" s="50"/>
       <c r="L116" s="50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M116" s="50"/>
       <c r="N116" s="50"/>
@@ -31154,7 +31155,7 @@
       <c r="H118" s="50"/>
       <c r="K118" s="50"/>
       <c r="L118" s="50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M118" s="50"/>
       <c r="N118" s="50"/>
@@ -31284,7 +31285,7 @@
       <c r="H120" s="50"/>
       <c r="I120" s="50"/>
       <c r="J120" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K120" s="50"/>
       <c r="L120" s="50"/>
@@ -31355,7 +31356,7 @@
       <c r="H121" s="50"/>
       <c r="I121" s="50"/>
       <c r="J121" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K121" s="50"/>
       <c r="L121" s="50"/>
@@ -31565,7 +31566,7 @@
       <c r="H124" s="50"/>
       <c r="K124" s="50"/>
       <c r="L124" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M124" s="50"/>
       <c r="N124" s="50"/>
@@ -31630,7 +31631,7 @@
       <c r="H125" s="50"/>
       <c r="K125" s="50"/>
       <c r="L125" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M125" s="50"/>
       <c r="N125" s="50"/>
@@ -31884,7 +31885,7 @@
       <c r="H129" s="50"/>
       <c r="K129" s="50"/>
       <c r="L129" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M129" s="50"/>
       <c r="N129" s="50"/>
